--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B692218-B055-47F9-904F-64EB0EE21F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2030568-2A3C-4CE1-86CF-CB49C9BFFFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t xml:space="preserve">   5.2 Crear documentación</t>
+  </si>
+  <si>
+    <t>Analisis cocomo y</t>
+  </si>
+  <si>
+    <t>1.5 Analisis COCOMO</t>
+  </si>
+  <si>
+    <t>1.6 Analisis de riesgos</t>
   </si>
 </sst>
 </file>
@@ -199,12 +208,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,6 +218,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,20 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A722B-616E-4DB3-BF2C-2A33C79EA3D9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -570,156 +579,168 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A6:C6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -5,27 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2030568-2A3C-4CE1-86CF-CB49C9BFFFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC97BD9-B9B2-4205-83D2-761EC641D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -120,13 +132,106 @@
     <t xml:space="preserve">   5.2 Crear documentación</t>
   </si>
   <si>
-    <t>Analisis cocomo y</t>
-  </si>
-  <si>
-    <t>1.5 Analisis COCOMO</t>
-  </si>
-  <si>
-    <t>1.6 Analisis de riesgos</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre de Entregable</t>
+  </si>
+  <si>
+    <t>Nombre de Actividad</t>
+  </si>
+  <si>
+    <t>Fecha de actualización</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha de entrega</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <t>Aceptado</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Criterio de aceptación</t>
+  </si>
+  <si>
+    <t>Entregable</t>
+  </si>
+  <si>
+    <t>Supuestos</t>
+  </si>
+  <si>
+    <t>El cliente acepta la lista de requerimientos finales del proyecto.</t>
+  </si>
+  <si>
+    <t>Recursos asignados</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Hitos</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Firma del responsable</t>
+  </si>
+  <si>
+    <t>Firma del líder de proyecto</t>
+  </si>
+  <si>
+    <t>Realizar el diagrama backlog del proyecto CV creator</t>
+  </si>
+  <si>
+    <t>Diagrama Backlog</t>
+  </si>
+  <si>
+    <t>El diagrama tiene que estar completo y legible de forma digital</t>
+  </si>
+  <si>
+    <t>Archivo Excel</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>1 scrum master, 1 diseñador, 1 programador, 1 tester</t>
+  </si>
+  <si>
+    <t>Realizar Backlog- 19/05/2025 5 pm</t>
+  </si>
+  <si>
+    <t>Actualizar, haciendo modificaciones 28/05/2025 5pm</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Dbacklog</t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>3 horas/   $100</t>
   </si>
 </sst>
 </file>
@@ -194,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,12 +307,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,13 +347,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,9 +389,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +429,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -393,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A722B-616E-4DB3-BF2C-2A33C79EA3D9}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,170 +721,393 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>18</v>
+      <c r="A14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
+      <c r="C21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>22</v>
+      <c r="C22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
-        <v>26</v>
+      <c r="A26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:C8"/>
+  <mergeCells count="5">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
+  <dimension ref="A2:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="9">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -1,43 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efras\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-proyectos\Administracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC97BD9-B9B2-4205-83D2-761EC641D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CC6A4-8E51-435B-8734-B11B0DA4CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -232,6 +222,30 @@
   </si>
   <si>
     <t>3 horas/   $100</t>
+  </si>
+  <si>
+    <t>Inicio del repositorio</t>
+  </si>
+  <si>
+    <t>Creación del repositorio base, con vite, react y tailwind</t>
+  </si>
+  <si>
+    <t>Debe estar disponible para bajar cambios de master desde el repositorio de github</t>
+  </si>
+  <si>
+    <t>El backlog esta terminado y comeienza la fase de planificación</t>
+  </si>
+  <si>
+    <t>repositorio en github</t>
+  </si>
+  <si>
+    <t>Crear repositorio 03/06/2025 1:00 pm</t>
+  </si>
+  <si>
+    <t>Actualizar, haciendo modificaciones 03/06/2025 5pm</t>
+  </si>
+  <si>
+    <t>2 horas/   $150</t>
   </si>
 </sst>
 </file>
@@ -338,6 +352,16 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,19 +377,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +402,583 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FED6BB9-E413-FF5A-1326-860ABD135581}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FED6BB9-E413-FF5A-1326-860ABD135581}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1356DC57-D0B4-9E7E-84E2-32DD888FF211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5495400" y="3942960"/>
+            <a:ext cx="1000800" cy="330480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1356DC57-D0B4-9E7E-84E2-32DD888FF211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5489280" y="3936840"/>
+              <a:ext cx="1013040" cy="342720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>316080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1030680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DCDA0-AAC5-D76A-A832-7E6CF6F00F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="316080" y="3885720"/>
+            <a:ext cx="714600" cy="473040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Entrada de lápiz 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DCDA0-AAC5-D76A-A832-7E6CF6F00F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="309960" y="3879600"/>
+              <a:ext cx="726840" cy="485280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85B949-461C-3043-A0E4-184A61327154}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5200200" y="4114260"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85B949-461C-3043-A0E4-184A61327154}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5194080" y="4108140"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87118AB-EC5C-6D77-8E37-F3C329CA3570}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4144320" y="4056300"/>
+            <a:ext cx="851760" cy="402840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Entrada de lápiz 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87118AB-EC5C-6D77-8E37-F3C329CA3570}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4138200" y="4050180"/>
+              <a:ext cx="864000" cy="415080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BAE277-52C3-BD29-C3BC-55540F8BCFA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="293760" y="4054860"/>
+            <a:ext cx="753840" cy="333360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Entrada de lápiz 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BAE277-52C3-BD29-C3BC-55540F8BCFA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="287640" y="4048740"/>
+              <a:ext cx="766080" cy="345600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:13.258"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:21.226"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">266 80 24575,'1'0'0,"1"1"0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 3 0,14 38 0,8 57 0,11 110 0,-9 35 0,-19-35 0,-9-227 0,0 1 0,-1 0 0,-1 0 0,0 0 0,-14-28 0,-10-28 0,4-4 0,1 9 0,3-1 0,3-1 0,-11-83 0,26 125 0,2 1 0,4-52 0,-3 77 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,19 12 0,21 37 0,-37-43 0,43 57 0,-19-24 0,2 0 0,58 57 0,-46-55 0,-29-26 0,1-1 0,0-1 0,1 0 0,1-1 0,-1 0 0,31 15 0,-46-27 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-2-1 0,-8-5 0,0 1 0,-1 1 0,0-1 0,0 2 0,0 0 0,0 0 0,-1 1 0,1 1 0,-18-2 0,-17 2 0,-57 3 0,50 0 0,44 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0-1 0,-13 9 0,-6 6 0,-38 31 0,1-1 0,64-46 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-4-2 0,4 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,1-3 0,1-12 0,1 1 0,1 0 0,9-26 0,0 12 0,1 2 0,2 0 0,36-49 0,-25 38 0,48-57 0,-47 64 0,32-50 0,-59 81 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,1-1 0,-3 1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 2 0,5 66 0,-5-63 0,-2 491 0,2-518-1365,0 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="778.92">875 424 24575,'3'-1'0,"0"0"0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,3-5 0,-2 3 0,-1 2 0,1-1 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,5-2 0,-5 2 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 4 0,0 1 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,4 8 0,15 28 0,-21-46 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-3 0,0 2 0,0 2 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3 0 0,6 1 0,0 1 0,0 0 0,0 1 0,-1 0 0,19 8 0,24 6 0,-28-14-1365,-1-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2006.48">1642 186 24575,'-3'0'0,"1"1"0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-3 3 0,-21 42 0,21-32 0,0 1 0,1-1 0,0 1 0,1-1 0,1 1 0,1 0 0,1 22 0,18-76 0,-13 7 0,-2 0 0,-1-1 0,-1 0 0,-1 1 0,-7-51 0,6 80 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,-2-2 0,2 4 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,-1 22 0,1 1 0,1 0 0,2 0 0,0-1 0,1 0 0,2 1 0,14 39 0,-10-29 0,-4-20 0,0-1 0,1 0 0,1 0 0,0 0 0,1-1 0,0 0 0,20 20 0,-28-31 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2-2 0,5-6 0,-1-1 0,0-1 0,0 1 0,5-16 0,4-8 0,-13 32 0,-1-1 0,0 1 0,0-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,3 0 0,-3 2 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,-2 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,1 3 0,11 15 0,-1 0 0,20 39 0,5 10 0,-39-71 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,-2-28 0,-28-53 0,23 66 0,1 0 0,0 0 0,1-1 0,1 0 0,-3-17 0,7 31 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,42-2 0,-39 3 0,0-1 0,0 1 0,0-2 0,0 1 0,0 0 0,8-3 0,-10 2 0,1-1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-6 0,17-66 0,-11 37 0,-2 10 0,6-45 0,-13 77 0,1 0 0,0-1 0,-1 1 0,2 0 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,1 1 0,5 4 0,-4-3 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1-1 0,8 2 0,-11-3 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-3 0,3-4 0,-1-1 0,-1 0 0,0-1 0,3-19 0,6-17 0,-12 46 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,2 1 0,41 41 0,-35-34 0,20 17 0,22 23 0,-48-46 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 6 0,-1-7 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-5 2 0,-6 1 0,-1 0 0,0-1 0,-15 1 0,-28-2 0,1-2 0,-79-13 0,35 3 0,44 8-1365,33 3-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2301.7">2092 1 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2600.21">2780 212 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:38.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">233 1 24575,'-15'0'0,"1"0"0,0 1 0,0 0 0,0 1 0,0 1 0,0 0 0,-14 6 0,21-6 0,1 0 0,0 1 0,-1 0 0,1 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,2 0 0,-1 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-6 12 0,6-13 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,0-1 0,0 1 0,0-1 0,3 12 0,-2-14 0,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,4 1 0,57 9 0,-28-3 0,1-2 0,-1-1 0,73-3 0,-108-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,1-2 0,-2 3 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-2 0,-5-6 0,0 1 0,0 0 0,-1 0 0,-13-10 0,1 1 0,16 12 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,1 0 0,-2 0 0,1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,-8 3 0,7-2 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 8 0,1 3 0,1 0 0,0 0 0,0 0 0,2 0 0,0-1 0,1 1 0,0 0 0,1-1 0,1 0 0,12 27 0,-14-34 0,1 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 0 0,0-1 0,9 2 0,-8-4 0,1 1 0,0-2 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 0 0,11-9 0,11-9 0,-2-1 0,27-30 0,-40 37 0,-1-2 0,-1 0 0,-1 0 0,0-1 0,-2-1 0,0 0 0,-1 0 0,-1-1 0,-1 0 0,4-26 0,-4 27 0,8-40 0,-15 60 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-2 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,-2 5 0,-29 56 0,28-52 0,1 1 0,1 0 0,0 0 0,0 1 0,1-1 0,0 17 0,5 88 0,1-41 0,-7 57 0,6 128 0,-3-260 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 1 0,0-2 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,1-2 0,39-62 0,-3-18 0,12-20 0,-41 78 0,0 3 0,-6 24 0,-2 14 0,-2 14 0,0 0 0,1 0 0,1 0 0,1-1 0,2 1 0,9 36 0,-12-64 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,3 0 0,-2-2 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,4-3 0,4-5 0,0 0 0,-1 0 0,0-1 0,10-16 0,12-20 0,-18 30 0,0 0 0,-2-1 0,0-1 0,-1 0 0,-1 0 0,10-32 0,-18 48 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 3 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 2 0,7 58 0,-7-50 0,0 9 0,0-1 0,2 1 0,0 0 0,8 30 0,-10-46 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,3-2 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0 0,4-10 0,1-3 0,-1 0 0,6-32 0,-12 50 0,-3 50 0,1-30 0,0-1 0,2 0 0,0 1 0,1-1 0,0 0 0,2 0 0,9 36 0,-11-51 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,7 2 0,-8-3 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,-1-1 0,1 0 0,1-2 0,1-6 0,0-1 0,0 1 0,-1 0 0,1-22 0,6-23 0,-9 55 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,6 13 0,2 36 0,-7-37 0,2 12 0,9 44 0,-13-66 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,3 2 0,-3-3 0,1 1 0,0 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1-2 0,2-5 0,0-1 0,0 0 0,-2 0 0,4-19 0,-2-12 0,-8 69 0,-8 42 0,6-39 0,2-1 0,-2 38 0,6-53 0,-1-9 0,1-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,3 6 0,-4-11 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,8-18 0,-7 17 0,9-30 0,11-58 0,-10 37 0,15-106 0,-21 129 0,-1-2 0,1-44 0,-5 53 0,1 0 0,1 0 0,1 0 0,1 0 0,1 1 0,9-26 0,40-136 0,-38 137 0,16-38 0,-29 78 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,1 1 0,0-1 0,9-6 0,-12 10 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,4 1 0,-3 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,5 6 0,-2-1 0,-1 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,-1 0 0,0 0 0,5 19 0,-4 15 0,-2-1 0,-2 1 0,-5 45 0,1 11 0,3-86 0,-1 0 0,-1 0 0,-1 0 0,0-1 0,-1 1 0,-7 19 0,-43 79 0,11-24 0,30-62 0,-1 0 0,-32 42 0,2-2 0,20-25 0,9-14 0,-26 36 0,13-44 0,26-18 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1 0 0,-2 3 0,4-4 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,28 10 0,-29-10 0,41 13 0,-1 1 0,45 24 0,-50-22-60,-16-8-375,0 2 0,28 18 0,-34-19-6391</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:05.474"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:01.826"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 109 24575,'0'1'0,"1"-1"0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,5 30 0,-5-26 0,8 54 0,-3 1 0,-2-1 0,-4 1 0,-1 0 0,-21 112 0,2-67 0,-15 60 0,34-247 0,3-328 0,-2 406 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,3-2 0,-4 4 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,25 13 0,198 166 0,-146-109 0,-43-36 0,-33-32 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,2 6 0,-4-9 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-4-1 0,-42-2 0,-297-10 0,342 13 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1-1 0,-3-3 0,5 3 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,1 1 0,-1-1 0,4-5 0,5-9 0,1 1 0,0 0 0,1 1 0,1 0 0,1 1 0,26-22 0,-20 19 0,-1-1 0,-2 0 0,20-26 0,-29 31 0,1 1 0,0 0 0,1 0 0,0 1 0,1 1 0,0-1 0,22-14 0,-33 25 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 14 0,-9 18 0,9-29 0,-16 47 0,-17 91 0,26-112 0,0 0 0,-2-1 0,-25 52 0,0-1 0,-55 149 0,76-182 0,12-37 0,-1-1 0,1 1 0,-1-1 0,-1 0 0,-8 15 0,12-23-20,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,-3-12-6806</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1085.24">659 612 24575,'0'-10'0,"1"-1"0,0 1 0,1 0 0,0 0 0,1 0 0,0 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 0 0,8-11 0,9-7 0,1 1 0,32-31 0,-49 52 0,-4 3 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 2 0,0-1 0,4-1 0,-5 2 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 2 0,4 7 0,0 0 0,-2 1 0,1-1 0,-1 1 0,-1-1 0,3 15 0,4 8 0,-10-32 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,26-36 0,-7 10 0,-18 26 3,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,3 2 0,4 5-249,1 1 1,-1 0 0,-1 0-1,13 19 1,-17-24-5,7 12-6576</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2757.34">1558 321 24575,'-1'9'0,"0"-1"0,-1 1 0,1-1 0,-6 16 0,-5 23 0,11-26 0,-1 2 0,2-39 0,1-438 0,-4 513 0,1-41 0,1 1 0,1 0 0,0-1 0,2 1 0,0-1 0,0 1 0,9 24 0,-5-31 0,1 0 0,1 0 0,0-1 0,1 0 0,0 0 0,12 10 0,-20-19 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,1-1 0,3-5 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,2-11 0,-6 20 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1 1 0,0 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,2 6 0,2 5 0,0 0 0,-1 1 0,0 0 0,3 22 0,9 25 0,0-12 0,-11-28 0,1-1 0,17 33 0,-10-18 0,-12-29 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,1 1 0,6 8 0,-9-15 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-2 0,3-26 0,-2-5 0,-1-15 0,2 35 0,2 14 0,-1 3 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,2-5 0,-3 0 0,1 1 0,-1 0 0,-1 0 0,1-1 0,-2 1 0,1 0 0,-1 0 0,-2-13 0,1 17 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,-6-2 0,9 4 0,0 1 0,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-2 0,0 0 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,4-2 0,10-16 0,-8 7 0,-1-1 0,1 1 0,-2-1 0,0 0 0,-1 0 0,4-23 0,-8 34 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,3-3 0,-3 3 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,3 2 0,8 4 0,1 1 0,-1 0 0,-1 0 0,0 2 0,14 10 0,0 1 0,-17-15 0,-1 1 0,0 0 0,0 1 0,-1 0 0,1 0 0,8 12 0,-15-18 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 3 0,0-3 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-4 1 0,-14 6-151,-1-2-1,0 0 0,0-1 0,-1-1 1,1-1-1,-1-1 0,0 0 1,-28-3-1,27 0-6674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3177.02">1902 189 24575</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:07.743"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 245 24575,'-1'53'0,"0"-18"0,0-1 0,3 1 0,1-1 0,1 0 0,11 37 0,-6-32 0,-1 1 0,-2 1 0,1 66 0,-3-43 0,-2-47 0,0-1 0,1 1 0,9 26 0,-5-106 0,-10 16 0,-2 1 0,-2 0 0,-20-68 0,15 69 0,2 0 0,2-1 0,-4-79 0,12 118 0,0-6 0,0 1 0,0 0 0,2-1 0,-1 1 0,1 0 0,5-13 0,-6 21 0,0 1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,5 0 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 2 0,0-1 0,0 1 0,0 1 0,0-1 0,9 7 0,12 9 0,41 34 0,-4-2 0,184 110 0,-249-161 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 2 0,-2-2 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-2 0 0,-74 2 0,67-3 0,-53 0 0,19-1 0,-58 5 0,87-2 0,1 2 0,0-1 0,0 2 0,0 0 0,1 0 0,-1 2 0,1-1 0,-15 10 0,26-14 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-4-1 0,4 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-3 0,2-7 0,0 0 0,0 0 0,1 1 0,1-1 0,0 1 0,11-19 0,50-66 0,-31 47 0,-7 7 0,1 2 0,2 0 0,46-44 0,-77 83 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 3 0,0 6 0,-1-1 0,0 0 0,0 1 0,-1-1 0,-4 14 0,-148 322 0,124-268 0,-21 87 0,48-152 0,-17 63-1365,13-59-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="947.43">613 457 24575,'0'-7'0,"0"-1"0,1 1 0,0 0 0,1-1 0,0 1 0,4-10 0,-6 16 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,0 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 2 0,5 6 0,-1 0 0,0 0 0,-1 1 0,7 14 0,-2-3 0,-5-31 0,-1-1 0,0-1 0,4-16 0,-7 26 0,0-3 0,1-1 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,6-5 0,-8 9 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1 1 0,26 36-1365,-17-18-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2341.98">1089 298 24575,'0'55'0,"0"-49"0,0-36 0,0-296 0,0 367 0,9 66 0,-6-92 0,0 0 0,0 0 0,2-1 0,0 1 0,0-1 0,1 0 0,14 22 0,-20-35 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,1-1 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,3-3 0,20-13 0,-24 18 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,1 1 0,11 14 0,-1 0 0,-1 0 0,0 1 0,-2 1 0,11 23 0,14 27 0,-31-70 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,3-5 0,16-13 0,22-7 0,-36 24 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,4-9 0,-2-6 0,-1 0 0,-1 0 0,0 0 0,-2 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,-9-33 0,5 45 0,4 24 0,1 25 0,3-35 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,5 5 0,-7-6 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-5 0,2-1 0,0-1 0,0 0 0,-1-1 0,0 1 0,0-1 0,2-15 0,10-29 0,-14 51 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,4 2 0,2 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 2 0,0-1 0,0 1 0,5 6 0,-1 2 0,-2-1 0,1 2 0,10 26 0,-16-35 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-2 8 0,2-11 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-6 1 0,-68 10 0,52-10 0,-32 3-176,-87-2 0,104-4-837,18 1-5813</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2777.63">1433 34 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.79">2094 87 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +1016,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +1122,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,7 +1264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,11 +1281,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -721,11 +1308,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -782,11 +1369,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -827,11 +1414,11 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -849,11 +1436,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -881,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,55 +1481,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>45880</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I3" t="s">
@@ -960,128 +1547,128 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1092,9 +1679,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1109,5 +1696,230 @@
     <mergeCell ref="B12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -8,14 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-proyectos\Administracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CC6A4-8E51-435B-8734-B11B0DA4CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB0773-1AE5-44C9-9868-B649AF99E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="26" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja10" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja11" sheetId="11" r:id="rId9"/>
+    <sheet name="Hoja12" sheetId="12" r:id="rId10"/>
+    <sheet name="Hoja13" sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja14" sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja15" sheetId="15" r:id="rId13"/>
+    <sheet name="Hoja16" sheetId="16" r:id="rId14"/>
+    <sheet name="Hoja17" sheetId="17" r:id="rId15"/>
+    <sheet name="Hoja18" sheetId="18" r:id="rId16"/>
+    <sheet name="Hoja19" sheetId="19" r:id="rId17"/>
+    <sheet name="Hoja20" sheetId="20" r:id="rId18"/>
+    <sheet name="Hoja21" sheetId="21" r:id="rId19"/>
+    <sheet name="Hoja22" sheetId="22" r:id="rId20"/>
+    <sheet name="Hoja23" sheetId="23" r:id="rId21"/>
+    <sheet name="Hoja24" sheetId="24" r:id="rId22"/>
+    <sheet name="Hoja25" sheetId="25" r:id="rId23"/>
+    <sheet name="Hoja26" sheetId="26" r:id="rId24"/>
+    <sheet name="Hoja27" sheetId="27" r:id="rId25"/>
+    <sheet name="Hoja28" sheetId="28" r:id="rId26"/>
+    <sheet name="Hoja29" sheetId="29" r:id="rId27"/>
+    <sheet name="DIagrama" sheetId="2" r:id="rId28"/>
+    <sheet name="Comienzo del repositorio" sheetId="3" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="73">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -424,6 +450,1336 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7397E408-9CC9-4FF4-B92E-178E25E7103D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7397E408-9CC9-4FF4-B92E-178E25E7103D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC099B3B-57A0-40E1-9401-C92915C8E928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC099B3B-57A0-40E1-9401-C92915C8E928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C4F8F-C237-4EC6-9F94-A81D2C42AF10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C4F8F-C237-4EC6-9F94-A81D2C42AF10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2FB23C-5AE1-4478-9D87-4FE5F25B5C05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2FB23C-5AE1-4478-9D87-4FE5F25B5C05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A1AC1A-68AB-4C4C-B4EE-490A254DE1D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A1AC1A-68AB-4C4C-B4EE-490A254DE1D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFCA774-8D7D-48D3-946A-8796FE7F1C35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFCA774-8D7D-48D3-946A-8796FE7F1C35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0BCB50-665E-4331-8CC8-3DB26D56EF97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0BCB50-665E-4331-8CC8-3DB26D56EF97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366B9A28-E096-4820-80C0-02BDBBCF3B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366B9A28-E096-4820-80C0-02BDBBCF3B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BE5709-8789-418B-82D7-1CC4511A56DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BE5709-8789-418B-82D7-1CC4511A56DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F53598-5B8E-42A9-816B-4F3C7F28AE61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F53598-5B8E-42A9-816B-4F3C7F28AE61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63ED9F-767A-4C04-8343-58CD64E9833C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63ED9F-767A-4C04-8343-58CD64E9833C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D74A354-C3AF-40B4-B788-980D1525FEF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D74A354-C3AF-40B4-B788-980D1525FEF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D1195B-B552-48BA-A703-0607B7208E03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D1195B-B552-48BA-A703-0607B7208E03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB6A931-12C6-4F54-B942-FC53CF0D2A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB6A931-12C6-4F54-B942-FC53CF0D2A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFF0B09-6E52-4243-8636-C34CE6F94A24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFF0B09-6E52-4243-8636-C34CE6F94A24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FED6BB9-E413-FF5A-1326-860ABD135581}"/>
                 </a:ext>
               </a:extLst>
@@ -602,7 +1958,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -802,7 +2158,1010 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26474D66-B270-4E2E-8F82-F116687CE608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26474D66-B270-4E2E-8F82-F116687CE608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713CBF3F-6744-4EDD-B87D-43850FD8A53B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713CBF3F-6744-4EDD-B87D-43850FD8A53B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3A9FA6-4D37-479D-A121-495554F12AAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3A9FA6-4D37-479D-A121-495554F12AAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BA956A-99EA-4002-96B4-B0F466DC9766}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BA956A-99EA-4002-96B4-B0F466DC9766}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB7D83C-878D-434A-8211-0D8EC7E0AE17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB7D83C-878D-434A-8211-0D8EC7E0AE17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:53.560"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:14.632"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:17.832"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:20.764"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:24"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:27.449"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:30.935"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:33.018"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:35.534"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:37.682"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:39.801"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:55.881"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:41.800"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:43.884"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:46.049"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:48.268"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:50.386"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:52.651"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:54.802"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -829,7 +3188,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -860,7 +3219,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -887,7 +3246,34 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:58.228"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -914,7 +3300,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -944,7 +3330,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -972,6 +3358,168 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2341.98">1089 298 24575,'0'55'0,"0"-49"0,0-36 0,0-296 0,0 367 0,9 66 0,-6-92 0,0 0 0,0 0 0,2-1 0,0 1 0,0-1 0,1 0 0,14 22 0,-20-35 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,1-1 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,3-3 0,20-13 0,-24 18 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,1 1 0,11 14 0,-1 0 0,-1 0 0,0 1 0,-2 1 0,11 23 0,14 27 0,-31-70 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,3-5 0,16-13 0,22-7 0,-36 24 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,4-9 0,-2-6 0,-1 0 0,-1 0 0,0 0 0,-2 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,-9-33 0,5 45 0,4 24 0,1 25 0,3-35 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,5 5 0,-7-6 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-5 0,2-1 0,0-1 0,0 0 0,-1-1 0,0 1 0,0-1 0,2-15 0,10-29 0,-14 51 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,4 2 0,2 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 2 0,0-1 0,0 1 0,5 6 0,-1 2 0,-2-1 0,1 2 0,10 26 0,-16-35 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-2 8 0,2-11 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-6 1 0,-68 10 0,52-10 0,-32 3-176,-87-2 0,104-4-837,18 1-5813</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2777.63">1433 34 24575,'0'0'-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.79">2094 87 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:00.345"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:02.349"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:04.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:06.597"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:08.797"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:10.851"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1274,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A722B-616E-4DB3-BF2C-2A33C79EA3D9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,12 +4012,4040 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F8BFA-32B2-45F8-8A47-5FBDD6265581}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAE69C-D455-4EA8-92F9-B7DCF7E9CA08}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3701D73E-13F5-46DF-B190-522CA31E4294}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CDE9E1-1FB1-4228-B864-A7CE004E1F4B}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA6DED2-231E-4E0B-B413-60D7A18CB692}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34D016-1358-4821-966C-2F100ECA28EA}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0310F28-66FE-4D54-A492-88DB8FE0D9B6}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5078C0-5139-439A-B0C1-8B68B1EA704E}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98783C3C-C8D1-455F-9C2C-593A09FCC4F7}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9768D7-F2DF-4675-A3A8-40F5FAEEE65E}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C22B7E-2436-47C1-B5C8-AC4F1534DD8C}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E808D06-4984-4532-837A-7B298F1D3161}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,6 +8258,230 @@
       <c r="A20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1701,16 +8501,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
-  <dimension ref="A2:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E409BCC-ED1C-445E-8955-238321CDE218}">
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1736,17 +8536,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="4">
-        <f>DATE(2025,6,3)</f>
-        <v>45811</v>
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>57</v>
@@ -1755,32 +8557,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <f>DATE(2025,6,3)</f>
-        <v>45811</v>
+        <v>45880</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1789,12 +8577,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1803,12 +8591,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1817,12 +8605,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1831,7 +8619,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -1845,7 +8633,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1859,12 +8647,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1873,10 +8661,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1885,12 +8673,1284 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6C3D7-A609-43DA-9BA5-1BF8EC24B6D7}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F84F38-9AB4-4E34-812B-544C9CFA1AB6}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5136AC-4FBB-4E45-A781-0F794BA84F25}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA59EA-F891-41D6-B791-CCCE95DA6C21}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB009B5F-CFA5-40C7-B7C8-CBDD8E6B383C}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1CB2FE-CAEB-4D86-A4D5-61A45D0E435A}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efras\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C6C74-7BA1-48E5-8A67-8152B2A7039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{947CAA37-2F01-4DA6-9F53-08C780CA27B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="833" activeTab="3" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="17" activeTab="15" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -48,23 +48,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="170">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -394,12 +383,197 @@
   </si>
   <si>
     <t>Iniciar la planificación del proyecto</t>
+  </si>
+  <si>
+    <t>Se analizará los revursos y posibilidad de que el proyecto llegue a buen pjerto</t>
+  </si>
+  <si>
+    <t>El equipo esta decauerdo, y las condiciones materiales permiten realizarlo</t>
+  </si>
+  <si>
+    <t>Word de aceptación com el analisis de la viabilidad</t>
+  </si>
+  <si>
+    <t>El proyecto es viable</t>
+  </si>
+  <si>
+    <t>4 desarrolladores</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>Creación del word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discusión del proyecto/reunion </t>
+  </si>
+  <si>
+    <t>1 hpra / $ 150</t>
+  </si>
+  <si>
+    <t>Se asigna que hara cada integrante del equipo</t>
+  </si>
+  <si>
+    <t>Todos los roles estén claramente definidos, documentados y aceptados por los miembros del equipo. Cada integrante debe conocer su responsabilidad y función dentro del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de asignación de roles </t>
+  </si>
+  <si>
+    <t>Se dispone de toda la información necesaria sobre las habilidades y disponibilidad del equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefe de proyecto, recursos humanos </t>
+  </si>
+  <si>
+    <t>Identificación de roles requeridos</t>
+  </si>
+  <si>
+    <t>Evaluación de capacidades del equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuir las actividades específicas del proyecto entre los miembros del equipo, en función de los roles previamente asignados, las habilidades y la carga de trabajo disponible.
+</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo tiene tareas asignadas claramente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listado o plan de tareas asignadas </t>
+  </si>
+  <si>
+    <t>Las tareas han sido desglosadas y planificadas previamente.</t>
+  </si>
+  <si>
+    <t>Jefe de proyecto, líderes de equipo, miembros del equipo de trabajo.</t>
+  </si>
+  <si>
+    <t>1 a 2 días hábiles.</t>
+  </si>
+  <si>
+    <t>Revisión del cronograma y tareas disponibles</t>
+  </si>
+  <si>
+    <t>Confirmación y compromiso de los responsables</t>
+  </si>
+  <si>
+    <t>Crear el diseño visual (UI) y de experiencia de usuario (UX) del producto digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototipo o diseño validado por stakeholders y usuarios clave; </t>
+  </si>
+  <si>
+    <t>Mockups (diseños visuales detallados)</t>
+  </si>
+  <si>
+    <t>Hay disponibilidad para pruebas de validación con usuarios o stakeholders.</t>
+  </si>
+  <si>
+    <t>Diseñador UI/UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 a 10 días hábiles </t>
+  </si>
+  <si>
+    <t>Diseño visual (mockups)</t>
+  </si>
+  <si>
+    <t>Revisión y ajustes con stakeholders</t>
+  </si>
+  <si>
+    <t>$1,000 – $3,000</t>
+  </si>
+  <si>
+    <t>Desarrollar representaciones visuales de alta fidelidad de las pantallas del producto,</t>
+  </si>
+  <si>
+    <t>Los mock-ups deben estar completos para todas las vistas requeridas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mock-ups en herramientas de diseño como Figma, Adobe </t>
+  </si>
+  <si>
+    <t>Se cuenta con una guía de estilo o branding.</t>
+  </si>
+  <si>
+    <t>Diseñador UI/UX,</t>
+  </si>
+  <si>
+    <t>$800 – $1,500</t>
+  </si>
+  <si>
+    <t>3 a 5 días hábiles</t>
+  </si>
+  <si>
+    <t>Revisión interna y feedback</t>
+  </si>
+  <si>
+    <t>Creación de primeros mock-ups</t>
+  </si>
+  <si>
+    <t>Diseñar y definir los estilos visuales del sitio o aplicación utilizando CSS y/o Tailwind CSS</t>
+  </si>
+  <si>
+    <t>Los estilos están implementados, reutilizables, documentados y alineados con los mock-ups aprobados</t>
+  </si>
+  <si>
+    <t>Archivos de estilos personalizados (tailwind.config.js</t>
+  </si>
+  <si>
+    <t>Los mock-ups están aprobados y disponibles.
+Tailwind está correctamente configurado en el entorno del proyecto.</t>
+  </si>
+  <si>
+    <t>Frontend developer, diseñador UI/UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 a 6 días hábiles </t>
+  </si>
+  <si>
+    <t>Definición de tokens de diseño (colores, tipografías, breakpoints, etc.)</t>
+  </si>
+  <si>
+    <t>Desarrollo de componentes estilizados (botones, formularios, layouts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$600 – $1,200 </t>
+  </si>
+  <si>
+    <t>Definir la estructura técnica del sistema, incluyendo componentes, módulos y tecnologías,</t>
+  </si>
+  <si>
+    <t>La arquitectura está documentada y validada por el equipo técnico,</t>
+  </si>
+  <si>
+    <t>Documento de Arquitectura de Software (SAD – Software Architecture Document)</t>
+  </si>
+  <si>
+    <t>Los requisitos funcionales y no funcionales han sido definidos.</t>
+  </si>
+  <si>
+    <t>Arquitecto de software</t>
+  </si>
+  <si>
+    <t>5 a 7 días hábiles</t>
+  </si>
+  <si>
+    <t>Diseño de arquitectura de alto nivel</t>
+  </si>
+  <si>
+    <t>Elección de tecnologías y patrones de diseño</t>
+  </si>
+  <si>
+    <t>$1,200 – $2,500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +700,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5854,9 +6034,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5894,7 +6074,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6000,7 +6180,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6142,7 +6322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7111,7 +7291,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,7 +7350,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -7182,7 +7364,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -7194,7 +7378,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -7206,7 +7392,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7218,7 +7406,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -7230,7 +7420,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -7242,7 +7434,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -7252,7 +7446,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -7264,7 +7460,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -7302,7 +7500,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7361,7 +7559,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -7373,7 +7573,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -7385,7 +7587,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -7397,7 +7601,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7409,7 +7615,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -7421,7 +7629,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -7433,7 +7643,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -7443,7 +7655,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -7455,7 +7669,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -7492,7 +7708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
@@ -10629,7 +10845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98783C3C-C8D1-455F-9C2C-593A09FCC4F7}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
@@ -10642,7 +10858,7 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10848,7 +11064,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10913,7 +11129,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -10925,7 +11143,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10937,7 +11157,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10949,7 +11171,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10961,7 +11185,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10973,7 +11199,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10985,7 +11213,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10995,7 +11225,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -11007,7 +11239,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -11044,8 +11278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6C3D7-A609-43DA-9BA5-1BF8EC24B6D7}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11104,7 +11338,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -11116,7 +11352,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -11128,7 +11366,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -11140,7 +11380,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -11152,7 +11394,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -11164,7 +11408,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -11176,7 +11422,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -11186,7 +11434,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -11198,7 +11448,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15">
+        <v>500</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -11236,7 +11488,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11295,7 +11547,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -11307,7 +11561,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -11319,7 +11575,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -11331,7 +11589,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -11343,7 +11603,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -11355,7 +11617,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -11367,7 +11631,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -11377,7 +11643,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -11389,7 +11657,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15">
+        <v>300</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -11427,7 +11697,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11486,7 +11756,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -11498,7 +11770,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -11510,7 +11784,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -11522,7 +11798,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -11534,7 +11812,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -11546,7 +11826,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -11558,7 +11840,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -11568,7 +11852,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -11580,7 +11866,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -11617,8 +11905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA59EA-F891-41D6-B791-CCCE95DA6C21}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11677,7 +11965,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -11689,7 +11979,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -11701,7 +11993,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -11713,7 +12007,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -11725,7 +12021,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -11737,7 +12035,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -11749,7 +12049,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -11759,7 +12061,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -11771,7 +12075,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{947CAA37-2F01-4DA6-9F53-08C780CA27B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549893F-ED23-4942-9F9E-897E7755C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="17" activeTab="15" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="17" activeTab="24" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
     <sheet name="muestra de los 8 diseños" sheetId="21" r:id="rId21"/>
     <sheet name="Formulario de llenado" sheetId="22" r:id="rId22"/>
     <sheet name="Descarga Lista" sheetId="23" r:id="rId23"/>
-    <sheet name="Añadir logica" sheetId="24" r:id="rId24"/>
-    <sheet name="Unitarias" sheetId="25" r:id="rId25"/>
-    <sheet name="Usuario" sheetId="26" r:id="rId26"/>
-    <sheet name="Seguridad" sheetId="27" r:id="rId27"/>
-    <sheet name="Producción" sheetId="28" r:id="rId28"/>
-    <sheet name="Crear documentación" sheetId="29" r:id="rId29"/>
+    <sheet name="Unitarias" sheetId="25" r:id="rId24"/>
+    <sheet name="Seguridad" sheetId="27" r:id="rId25"/>
+    <sheet name="Crear documentación" sheetId="29" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="193">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -331,25 +328,16 @@
     <t>Muestra de los 8 diseños</t>
   </si>
   <si>
-    <t xml:space="preserve">Añadior logica frontend a cada componente </t>
-  </si>
-  <si>
     <t>Pruebas</t>
   </si>
   <si>
     <t>Unitarias</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>Seguridad</t>
   </si>
   <si>
     <t>Despliegue</t>
-  </si>
-  <si>
-    <t>Producción</t>
   </si>
   <si>
     <t>Crear documentación</t>
@@ -565,6 +553,84 @@
   </si>
   <si>
     <t>$1,200 – $2,500</t>
+  </si>
+  <si>
+    <t>Generación de la documentación técnica y funcional del sistema web</t>
+  </si>
+  <si>
+    <t>La documentación debe estar completa, clara y actualizada.</t>
+  </si>
+  <si>
+    <t>Documento PDF/Word de la documentación técnica y funcional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema web ha sido terminado en su priomera version </t>
+  </si>
+  <si>
+    <t>1 Analista funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 días hábiles </t>
+  </si>
+  <si>
+    <t>Recolección de información</t>
+  </si>
+  <si>
+    <t>Redacción inicial</t>
+  </si>
+  <si>
+    <t>Analista funcional</t>
+  </si>
+  <si>
+    <t>Actividad destinada a identificar vulnerabilidades en el sistema web mediante pruebas de seguridad,</t>
+  </si>
+  <si>
+    <t>No deben encontrarse vulnerabilidades críticas o altas.</t>
+  </si>
+  <si>
+    <t>Checklist de cumplimiento de buenas prácticas (OWASP).</t>
+  </si>
+  <si>
+    <t>El sistema está en un entorno estable o de staging para pruebas.</t>
+  </si>
+  <si>
+    <t>1 Especialista en ciberseguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 días hábiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparación y configuración del entorno de prueba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación de resultados y recomendaciones </t>
+  </si>
+  <si>
+    <t>Desarrollo y ejecución de pruebas unitarias para validar el correcto funcionamiento de componentes</t>
+  </si>
+  <si>
+    <t>Cobertura mínima del 80% de los módulos críticos.</t>
+  </si>
+  <si>
+    <t>Código fuente de pruebas unitarias.</t>
+  </si>
+  <si>
+    <t>El sistema tiene una arquitectura modular que permite pruebas unitarias.</t>
+  </si>
+  <si>
+    <t>2 Desarrolladores (frontend y backend) y 1 QA (para validación de casos cubiertos)</t>
+  </si>
+  <si>
+    <t>4 días hábiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación de componentes a testear </t>
+  </si>
+  <si>
+    <t>Implementación de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	$ 880</t>
   </si>
 </sst>
 </file>
@@ -2907,141 +2973,6 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1495080" y="3800040"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1488960" y="3793920"/>
-              <a:ext cx="12600" cy="12600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28230</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28590</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CDC0BC-E49F-49DA-B7A0-4ACC3BDA866A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1495080" y="3800040"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1488960" y="3793920"/>
-              <a:ext cx="12600" cy="12600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28230</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28590</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D1195B-B552-48BA-A703-0607B7208E03}"/>
                 </a:ext>
               </a:extLst>
@@ -3155,142 +3086,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28230</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28590</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1495080" y="3800040"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1488960" y="3793920"/>
-              <a:ext cx="12600" cy="12600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28230</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28590</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6948CB8D-48E5-4193-AC7B-3A7D4563867A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1495080" y="3800040"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1488960" y="3793920"/>
-              <a:ext cx="12600" cy="12600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3425,77 +3221,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28230</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28590</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1495080" y="3800040"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1488960" y="3793920"/>
-              <a:ext cx="12600" cy="12600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5610,7 +5336,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:43.884"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:46.049"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5637,7 +5363,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:41.831"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:42.841"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5664,7 +5390,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:46.049"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:50.386"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5691,7 +5417,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:42.841"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:46.158"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5748,7 +5474,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:48.268"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:54.802"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5760,141 +5486,6 @@
 </file>
 
 <file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:44.019"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:50.386"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:46.158"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:52.651"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:54.802"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7351,7 +6942,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7365,7 +6956,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -7379,7 +6970,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7393,7 +6984,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7407,7 +6998,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7421,7 +7012,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7435,7 +7026,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7447,7 +7038,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7461,7 +7052,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7560,7 +7151,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7574,7 +7165,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -7588,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7602,7 +7193,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7616,7 +7207,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7630,7 +7221,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7644,7 +7235,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7656,7 +7247,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7670,7 +7261,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7708,7 +7299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
@@ -9469,11 +9060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E808D06-4984-4532-837A-7B298F1D3161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9506,13 +9097,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -9532,7 +9123,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9544,7 +9137,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9556,7 +9151,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9568,7 +9165,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9580,7 +9179,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9592,7 +9193,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9604,7 +9207,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9614,7 +9219,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -9626,7 +9233,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9660,11 +9269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9697,10 +9306,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>94</v>
@@ -9723,7 +9332,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9735,7 +9346,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9747,7 +9360,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9759,7 +9374,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9771,7 +9388,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9783,7 +9402,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9795,7 +9416,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9805,7 +9428,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -9817,7 +9442,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15">
+        <v>1360</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9851,11 +9478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9886,20 +9513,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -9914,7 +9543,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9926,7 +9557,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9938,7 +9571,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9950,7 +9585,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9962,7 +9599,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9974,7 +9613,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9986,7 +9627,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9996,7 +9639,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -10008,580 +9653,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45811</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>45796</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45880</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection sqref="A1:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45811</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>45796</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45880</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45811</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>45796</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45880</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15">
+        <v>630</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10739,7 +9813,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10898,7 +9972,7 @@
         <v>45811</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F3" s="4">
         <v>45796</v>
@@ -10915,7 +9989,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10929,7 +10003,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10943,7 +10017,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10957,7 +10031,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10985,7 +10059,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10999,7 +10073,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11011,7 +10085,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11025,7 +10099,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11130,7 +10204,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11144,7 +10218,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11158,7 +10232,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11172,7 +10246,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11186,7 +10260,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11200,7 +10274,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11214,7 +10288,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11226,7 +10300,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11240,7 +10314,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11339,7 +10413,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11353,7 +10427,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11367,7 +10441,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11381,7 +10455,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11395,7 +10469,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11409,7 +10483,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11423,7 +10497,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11435,7 +10509,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11548,7 +10622,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11562,7 +10636,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11576,7 +10650,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11590,7 +10664,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11604,7 +10678,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11618,7 +10692,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11632,7 +10706,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11644,7 +10718,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11757,7 +10831,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11771,7 +10845,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11785,7 +10859,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11799,7 +10873,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11813,7 +10887,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11827,7 +10901,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11841,7 +10915,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11853,7 +10927,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11867,7 +10941,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11966,7 +11040,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11980,7 +11054,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11994,7 +11068,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12008,7 +11082,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12022,7 +11096,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12036,7 +11110,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12050,7 +11124,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12062,7 +11136,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12076,7 +11150,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albc8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549893F-ED23-4942-9F9E-897E7755C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B577EBF-7C1C-466E-B0CF-0182A5130F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="17" activeTab="24" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="2030" yWindow="1580" windowWidth="19200" windowHeight="11170" tabRatio="833" firstSheet="6" activeTab="12" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,35 @@
     <sheet name="muestra de los 8 diseños" sheetId="21" r:id="rId21"/>
     <sheet name="Formulario de llenado" sheetId="22" r:id="rId22"/>
     <sheet name="Descarga Lista" sheetId="23" r:id="rId23"/>
-    <sheet name="Unitarias" sheetId="25" r:id="rId24"/>
-    <sheet name="Seguridad" sheetId="27" r:id="rId25"/>
-    <sheet name="Crear documentación" sheetId="29" r:id="rId26"/>
+    <sheet name="Añadir logica" sheetId="24" r:id="rId24"/>
+    <sheet name="Unitarias" sheetId="25" r:id="rId25"/>
+    <sheet name="Usuario" sheetId="26" r:id="rId26"/>
+    <sheet name="Seguridad" sheetId="27" r:id="rId27"/>
+    <sheet name="Producción" sheetId="28" r:id="rId28"/>
+    <sheet name="Crear documentación" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="196">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -328,16 +342,25 @@
     <t>Muestra de los 8 diseños</t>
   </si>
   <si>
+    <t xml:space="preserve">Añadior logica frontend a cada componente </t>
+  </si>
+  <si>
     <t>Pruebas</t>
   </si>
   <si>
     <t>Unitarias</t>
   </si>
   <si>
+    <t>Usuario</t>
+  </si>
+  <si>
     <t>Seguridad</t>
   </si>
   <si>
     <t>Despliegue</t>
+  </si>
+  <si>
+    <t>Producción</t>
   </si>
   <si>
     <t>Crear documentación</t>
@@ -555,82 +578,88 @@
     <t>$1,200 – $2,500</t>
   </si>
   <si>
-    <t>Generación de la documentación técnica y funcional del sistema web</t>
-  </si>
-  <si>
-    <t>La documentación debe estar completa, clara y actualizada.</t>
-  </si>
-  <si>
-    <t>Documento PDF/Word de la documentación técnica y funcional.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema web ha sido terminado en su priomera version </t>
-  </si>
-  <si>
-    <t>1 Analista funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 días hábiles </t>
-  </si>
-  <si>
-    <t>Recolección de información</t>
-  </si>
-  <si>
-    <t>Redacción inicial</t>
-  </si>
-  <si>
-    <t>Analista funcional</t>
-  </si>
-  <si>
-    <t>Actividad destinada a identificar vulnerabilidades en el sistema web mediante pruebas de seguridad,</t>
-  </si>
-  <si>
-    <t>No deben encontrarse vulnerabilidades críticas o altas.</t>
-  </si>
-  <si>
-    <t>Checklist de cumplimiento de buenas prácticas (OWASP).</t>
-  </si>
-  <si>
-    <t>El sistema está en un entorno estable o de staging para pruebas.</t>
-  </si>
-  <si>
-    <t>1 Especialista en ciberseguridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 días hábiles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparación y configuración del entorno de prueba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentación de resultados y recomendaciones </t>
-  </si>
-  <si>
-    <t>Desarrollo y ejecución de pruebas unitarias para validar el correcto funcionamiento de componentes</t>
-  </si>
-  <si>
-    <t>Cobertura mínima del 80% de los módulos críticos.</t>
-  </si>
-  <si>
-    <t>Código fuente de pruebas unitarias.</t>
-  </si>
-  <si>
-    <t>El sistema tiene una arquitectura modular que permite pruebas unitarias.</t>
-  </si>
-  <si>
-    <t>2 Desarrolladores (frontend y backend) y 1 QA (para validación de casos cubiertos)</t>
-  </si>
-  <si>
-    <t>4 días hábiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificación de componentes a testear </t>
-  </si>
-  <si>
-    <t>Implementación de pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	$ 880</t>
+    <t>Diseño y desarrollo de un módulo web para la gestión de inventario en tiempo real, integrado con base de datos y acceso multiusuario</t>
+  </si>
+  <si>
+    <t>Validación de datos obligatoria y efectiva.</t>
+  </si>
+  <si>
+    <t>Código fuente del módulo web.
+Manual de usuario y documentación técnica.</t>
+  </si>
+  <si>
+    <t>Acceso disponible a la base de datos de producción.
+Se dispone de entorno de pruebas proporcionado por infraestructura.</t>
+  </si>
+  <si>
+    <t>Desarrollador ui/ux</t>
+  </si>
+  <si>
+    <t>5 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprobación del diseño funcional y Entrega final al cliente</t>
+  </si>
+  <si>
+    <t>Diseño elegante, con énfasis en logros de liderazgo.</t>
+  </si>
+  <si>
+    <t>Claridad, profesionalismo, logros cuantificables, resumen ejecutivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentacion de los 8 modelos </t>
+  </si>
+  <si>
+    <t>El usuario tiene formación de posgrado y publicaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñador </t>
+  </si>
+  <si>
+    <t>Diseño de los 8 modelos</t>
+  </si>
+  <si>
+    <t>Diseño profesional, limpio y legible.
+Información organizada en una sola página.</t>
+  </si>
+  <si>
+    <t>Versión final en PDF lista para enviar.</t>
+  </si>
+  <si>
+    <t>La información entregada es verídica y actualizada.</t>
+  </si>
+  <si>
+    <t>redactor de CV profesional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envío de borrador para revisión.
+Envío de borrador para revisión.
+</t>
+  </si>
+  <si>
+    <t>Entrega de versión final con ajustes</t>
+  </si>
+  <si>
+    <t>Currículum Vitae moderno , experiencia en proyectos y claridad visual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso de descarga automatizada de un Currículum Vitae personalizado a través de una plataforma web </t>
+  </si>
+  <si>
+    <t>El usuario puede descargar su CV en formato PDF y Word.
+El archivo debe incluir todos los datos ingresados correctamente.</t>
+  </si>
+  <si>
+    <t>Funcionalidad activa de descarga.</t>
+  </si>
+  <si>
+    <t>El usuario ya ha completado el formulario o cargado sus datos.</t>
+  </si>
+  <si>
+    <t>desarrollador ui/ux</t>
+  </si>
+  <si>
+    <t>Activación de botón de descarga en la UI</t>
   </si>
 </sst>
 </file>
@@ -638,7 +667,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -701,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -733,11 +762,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,8 +916,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2973,6 +3159,141 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CDC0BC-E49F-49DA-B7A0-4ACC3BDA866A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D1195B-B552-48BA-A703-0607B7208E03}"/>
                 </a:ext>
               </a:extLst>
@@ -3086,7 +3407,142 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6948CB8D-48E5-4193-AC7B-3A7D4563867A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3221,7 +3677,77 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5336,7 +5862,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:46.049"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:43.884"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5363,7 +5889,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:42.841"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:41.831"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5390,7 +5916,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:50.386"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:46.049"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5417,7 +5943,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:46.158"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:42.841"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5474,6 +6000,141 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:48.268"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:44.019"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:50.386"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:46.158"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:52.651"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:54.802"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -5485,7 +6146,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5625,9 +6286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5665,7 +6326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5771,7 +6432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5913,7 +6574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5927,176 +6588,176 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -6115,15 +6776,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB009B5F-CFA5-40C7-B7C8-CBDD8E6B383C}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -6149,7 +6814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -6173,113 +6838,160 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>400</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -6289,15 +7001,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6309,12 +7021,16 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -6340,7 +7056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -6364,11 +7080,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -6376,11 +7094,13 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -6388,11 +7108,13 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -6400,11 +7122,13 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -6412,11 +7136,13 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6424,11 +7150,13 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -6436,11 +7164,13 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -6448,7 +7178,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6458,11 +7188,13 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <v>300</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -6470,7 +7202,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -6497,15 +7229,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F8BFA-32B2-45F8-8A47-5FBDD6265581}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -6531,7 +7267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>11</v>
       </c>
@@ -6555,35 +7291,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -6591,11 +7334,13 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -6603,11 +7348,13 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6615,11 +7362,13 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -6627,11 +7376,13 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -6639,9 +7390,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -6649,11 +7402,13 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <v>300</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -6661,7 +7416,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -6688,15 +7443,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -6722,7 +7480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>12</v>
       </c>
@@ -6746,113 +7504,138 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>500</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -6861,16 +7644,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
+  <mergeCells count="8">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6885,9 +7667,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -6913,7 +7695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -6937,12 +7719,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -6951,12 +7733,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -6965,12 +7747,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -6979,12 +7761,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -6993,12 +7775,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7007,12 +7789,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7021,12 +7803,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7035,10 +7817,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7047,12 +7829,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7061,7 +7843,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7094,9 +7876,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7122,7 +7904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>14</v>
       </c>
@@ -7146,12 +7928,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7160,12 +7942,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -7174,12 +7956,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7188,12 +7970,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7202,12 +7984,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7216,12 +7998,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7230,12 +8012,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7244,10 +8026,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7256,12 +8038,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7270,7 +8052,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7303,9 +8085,9 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7331,7 +8113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -7355,7 +8137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -7367,7 +8149,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -7379,7 +8161,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -7391,7 +8173,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -7403,7 +8185,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -7415,7 +8197,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -7427,7 +8209,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -7439,7 +8221,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7449,7 +8231,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7461,7 +8243,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7494,9 +8276,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7522,7 +8304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>16</v>
       </c>
@@ -7546,7 +8328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -7558,7 +8340,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -7570,7 +8352,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -7582,7 +8364,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -7594,7 +8376,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -7606,7 +8388,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -7618,7 +8400,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -7630,7 +8412,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7640,7 +8422,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7652,7 +8434,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7685,9 +8467,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7713,7 +8495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -7737,7 +8519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -7749,7 +8531,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -7761,7 +8543,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -7773,7 +8555,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -7785,7 +8567,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -7797,7 +8579,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -7809,7 +8591,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -7821,7 +8603,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7831,7 +8613,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7843,7 +8625,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7876,9 +8658,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7904,7 +8686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>18</v>
       </c>
@@ -7928,7 +8710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -7940,7 +8722,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -7952,7 +8734,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -7964,7 +8746,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -7976,7 +8758,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -7988,7 +8770,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8000,7 +8782,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8012,7 +8794,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8022,7 +8804,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8034,7 +8816,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8067,15 +8849,15 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8101,7 +8883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -8131,17 +8913,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8155,7 +8937,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8169,7 +8951,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8183,7 +8965,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8197,7 +8979,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8211,7 +8993,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8225,7 +9007,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8239,7 +9021,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>60</v>
@@ -8251,7 +9033,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8265,7 +9047,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8273,7 +9055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -8303,9 +9085,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8331,7 +9113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>19</v>
       </c>
@@ -8355,7 +9137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8367,7 +9149,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8379,7 +9161,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8391,7 +9173,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8403,7 +9185,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8415,7 +9197,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8427,7 +9209,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8439,7 +9221,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8449,7 +9231,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8461,7 +9243,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8494,9 +9276,9 @@
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8522,7 +9304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -8546,7 +9328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8558,7 +9340,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8570,7 +9352,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8582,7 +9364,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8594,7 +9376,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8606,7 +9388,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8618,7 +9400,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8630,7 +9412,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8640,7 +9422,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8652,7 +9434,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8685,9 +9467,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8713,7 +9495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>21</v>
       </c>
@@ -8737,7 +9519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8749,7 +9531,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8761,7 +9543,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8773,7 +9555,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8785,7 +9567,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8797,7 +9579,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8809,7 +9591,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8821,7 +9603,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8831,7 +9613,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8843,7 +9625,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8876,9 +9658,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8904,7 +9686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>22</v>
       </c>
@@ -8928,7 +9710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8940,7 +9722,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8952,7 +9734,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8964,7 +9746,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8976,7 +9758,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8988,7 +9770,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9000,7 +9782,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9012,7 +9794,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9022,7 +9804,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9034,7 +9816,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9060,16 +9842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E808D06-4984-4532-837A-7B298F1D3161}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9095,15 +9877,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -9119,13 +9901,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9133,13 +9913,11 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>185</v>
-      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9147,13 +9925,11 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>186</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9161,13 +9937,11 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9175,13 +9949,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>188</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9189,13 +9961,11 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9203,13 +9973,11 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9217,11 +9985,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>191</v>
-      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -9229,13 +9995,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>192</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9243,7 +10007,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9269,16 +10033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9304,12 +10068,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>94</v>
@@ -9328,13 +10092,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>176</v>
-      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9342,13 +10104,11 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9356,13 +10116,11 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9370,13 +10128,11 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9384,13 +10140,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>180</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9398,13 +10152,11 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>181</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9412,13 +10164,11 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9426,11 +10176,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>183</v>
-      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -9438,13 +10186,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15">
-        <v>1360</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9452,7 +10198,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9478,16 +10224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9513,22 +10259,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -9539,13 +10283,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9553,13 +10295,11 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9567,13 +10307,11 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9581,13 +10319,11 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9595,13 +10331,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>171</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9609,13 +10343,11 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9623,13 +10355,11 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9637,11 +10367,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -9649,13 +10377,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15">
-        <v>630</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9663,7 +10389,580 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection sqref="A1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9696,12 +10995,12 @@
       <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9727,7 +11026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9756,17 +11055,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -9780,7 +11079,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -9794,7 +11093,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9808,12 +11107,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9822,7 +11121,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9836,7 +11135,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9850,7 +11149,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9864,7 +11163,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>70</v>
@@ -9876,7 +11175,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9890,7 +11189,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9923,16 +11222,16 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9958,7 +11257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -9972,7 +11271,7 @@
         <v>45811</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4">
         <v>45796</v>
@@ -9984,12 +11283,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9998,12 +11297,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10012,12 +11311,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10026,12 +11325,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10040,7 +11339,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -10054,12 +11353,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10068,12 +11367,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10082,10 +11381,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -10094,12 +11393,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10108,7 +11407,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10141,15 +11440,15 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10175,7 +11474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -10199,12 +11498,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10213,12 +11512,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10227,12 +11526,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10241,12 +11540,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10255,12 +11554,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -10269,12 +11568,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10283,12 +11582,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10297,10 +11596,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -10309,12 +11608,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10323,7 +11622,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10356,9 +11655,9 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10384,7 +11683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -10408,12 +11707,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10422,12 +11721,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10436,12 +11735,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10450,12 +11749,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10464,12 +11763,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -10478,12 +11777,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10492,12 +11791,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10506,10 +11805,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -10518,7 +11817,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -10532,7 +11831,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10565,9 +11864,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10593,7 +11892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -10617,12 +11916,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10631,12 +11930,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10645,12 +11944,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10659,12 +11958,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10673,12 +11972,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -10687,12 +11986,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10701,12 +12000,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10715,10 +12014,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -10727,7 +12026,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -10741,7 +12040,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10774,9 +12073,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10802,7 +12101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -10826,12 +12125,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10840,12 +12139,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10854,12 +12153,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10868,12 +12167,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10882,12 +12181,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -10896,12 +12195,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10910,12 +12209,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10924,10 +12223,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -10936,12 +12235,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10950,7 +12249,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10980,12 +12279,12 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11011,7 +12310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -11035,12 +12334,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11049,12 +12348,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11063,12 +12362,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11077,12 +12376,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11091,12 +12390,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11105,12 +12404,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11119,12 +12418,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11133,10 +12432,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11145,12 +12444,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11159,7 +12458,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albc8\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B577EBF-7C1C-466E-B0CF-0182A5130F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A055E7A-E444-490C-B531-BE88D3226257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="1580" windowWidth="19200" windowHeight="11170" tabRatio="833" firstSheet="6" activeTab="12" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="21" activeTab="26" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="221">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Despliegue</t>
-  </si>
-  <si>
-    <t>Producción</t>
   </si>
   <si>
     <t>Crear documentación</t>
@@ -660,6 +657,84 @@
   </si>
   <si>
     <t>Activación de botón de descarga en la UI</t>
+  </si>
+  <si>
+    <t>Analista funcional</t>
+  </si>
+  <si>
+    <t>Generación de la documentación técnica y funcional del sistema web</t>
+  </si>
+  <si>
+    <t>La documentación debe estar completa, clara y actualizada.</t>
+  </si>
+  <si>
+    <t>Documento PDF/Word de la documentación técnica y funcional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema web ha sido terminado en su priomera version </t>
+  </si>
+  <si>
+    <t>1 Analista funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 días hábiles </t>
+  </si>
+  <si>
+    <t>Recolección de información</t>
+  </si>
+  <si>
+    <t>Redacción inicial</t>
+  </si>
+  <si>
+    <t>Actividad destinada a identificar vulnerabilidades en el sistema web mediante pruebas de seguridad,</t>
+  </si>
+  <si>
+    <t>No deben encontrarse vulnerabilidades críticas o altas.</t>
+  </si>
+  <si>
+    <t>Checklist de cumplimiento de buenas prácticas (OWASP).</t>
+  </si>
+  <si>
+    <t>El sistema está en un entorno estable o de staging para pruebas.</t>
+  </si>
+  <si>
+    <t>1 Especialista en ciberseguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 días hábiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparación y configuración del entorno de prueba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación de resultados y recomendaciones </t>
+  </si>
+  <si>
+    <t>Desarrollo y ejecución de pruebas unitarias para validar el correcto funcionamiento de componentes</t>
+  </si>
+  <si>
+    <t>Cobertura mínima del 80% de los módulos críticos.</t>
+  </si>
+  <si>
+    <t>Código fuente de pruebas unitarias.</t>
+  </si>
+  <si>
+    <t>El sistema tiene una arquitectura modular que permite pruebas unitarias.</t>
+  </si>
+  <si>
+    <t>2 Desarrolladores (frontend y backend) y 1 QA (para validación de casos cubiertos)</t>
+  </si>
+  <si>
+    <t>4 días hábiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación de componentes a testear </t>
+  </si>
+  <si>
+    <t>Implementación de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	$ 880</t>
   </si>
 </sst>
 </file>
@@ -667,7 +742,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -882,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,26 +991,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,6 +1010,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6286,9 +6359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6326,7 +6399,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6432,7 +6505,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6574,7 +6647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6588,176 +6661,176 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -6776,19 +6849,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB009B5F-CFA5-40C7-B7C8-CBDD8E6B383C}">
-  <dimension ref="A2:O18"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -6814,7 +6887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -6838,29 +6911,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -6871,17 +6944,13 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -6893,12 +6962,12 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -6910,12 +6979,12 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -6927,12 +6996,12 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -6944,12 +7013,12 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -6961,37 +7030,37 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="16">
         <v>400</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7001,15 +7070,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7024,13 +7093,13 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7056,7 +7125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -7080,12 +7149,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7094,12 +7163,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -7108,12 +7177,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7122,12 +7191,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7136,12 +7205,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7150,12 +7219,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7164,12 +7233,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7178,7 +7247,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7188,7 +7257,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7202,7 +7271,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7229,19 +7298,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F8BFA-32B2-45F8-8A47-5FBDD6265581}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7267,7 +7336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>11</v>
       </c>
@@ -7291,41 +7360,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7334,12 +7402,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7348,12 +7416,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7362,7 +7430,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -7376,12 +7444,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7390,10 +7458,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7402,7 +7470,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7416,7 +7484,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7445,16 +7513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7480,7 +7548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>12</v>
       </c>
@@ -7504,138 +7572,138 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="23">
         <v>500</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7667,9 +7735,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7695,7 +7763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -7719,12 +7787,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7733,12 +7801,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -7747,12 +7815,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7761,12 +7829,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7775,12 +7843,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7789,12 +7857,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7803,12 +7871,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7817,10 +7885,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7829,12 +7897,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7843,7 +7911,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7876,9 +7944,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7904,7 +7972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>14</v>
       </c>
@@ -7928,12 +7996,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7942,12 +8010,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -7956,12 +8024,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -7970,12 +8038,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -7984,12 +8052,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -7998,12 +8066,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8012,12 +8080,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8026,10 +8094,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -8038,12 +8106,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -8052,7 +8120,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8085,9 +8153,9 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8113,7 +8181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -8137,7 +8205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8149,7 +8217,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8161,7 +8229,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8173,7 +8241,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8185,7 +8253,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8197,7 +8265,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8209,7 +8277,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8221,7 +8289,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8231,7 +8299,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8243,7 +8311,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8276,9 +8344,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8304,7 +8372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>16</v>
       </c>
@@ -8328,7 +8396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8340,7 +8408,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8352,7 +8420,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8364,7 +8432,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8376,7 +8444,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8388,7 +8456,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8400,7 +8468,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8412,7 +8480,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8422,7 +8490,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8434,7 +8502,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8467,9 +8535,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8495,7 +8563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -8519,7 +8587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8531,7 +8599,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8543,7 +8611,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8555,7 +8623,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8567,7 +8635,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8579,7 +8647,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8591,7 +8659,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8603,7 +8671,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8613,7 +8681,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8625,7 +8693,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8658,9 +8726,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8686,7 +8754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>18</v>
       </c>
@@ -8710,7 +8778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8722,7 +8790,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8734,7 +8802,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8746,7 +8814,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8758,7 +8826,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8770,7 +8838,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -8782,7 +8850,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -8794,7 +8862,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8804,7 +8872,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8816,7 +8884,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8849,15 +8917,15 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8883,7 +8951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -8913,17 +8981,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -8937,7 +9005,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -8951,7 +9019,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -8965,7 +9033,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -8979,7 +9047,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8993,7 +9061,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9007,7 +9075,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9021,7 +9089,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>60</v>
@@ -9033,7 +9101,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9047,7 +9115,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9055,7 +9123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -9085,9 +9153,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9113,7 +9181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>19</v>
       </c>
@@ -9137,7 +9205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -9149,7 +9217,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -9161,7 +9229,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9173,7 +9241,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -9185,7 +9253,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9197,7 +9265,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9209,7 +9277,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9221,7 +9289,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9231,7 +9299,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9243,7 +9311,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9276,9 +9344,9 @@
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9304,7 +9372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -9328,7 +9396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -9340,7 +9408,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -9352,7 +9420,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9364,7 +9432,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -9376,7 +9444,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9388,7 +9456,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9400,7 +9468,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9412,7 +9480,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9422,7 +9490,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9434,7 +9502,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9467,9 +9535,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9495,7 +9563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>21</v>
       </c>
@@ -9519,7 +9587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -9531,7 +9599,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -9543,7 +9611,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9555,7 +9623,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -9567,7 +9635,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9579,7 +9647,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9591,7 +9659,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9603,7 +9671,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9613,7 +9681,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9625,7 +9693,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9658,9 +9726,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9686,7 +9754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>22</v>
       </c>
@@ -9710,7 +9778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -9722,7 +9790,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -9734,7 +9802,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9746,7 +9814,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -9758,7 +9826,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9770,7 +9838,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9782,7 +9850,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9794,7 +9862,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9804,7 +9872,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -9816,7 +9884,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9849,9 +9917,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9877,7 +9945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>23</v>
       </c>
@@ -9901,7 +9969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -9913,7 +9981,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -9925,7 +9993,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9937,7 +10005,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -9949,7 +10017,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9961,7 +10029,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -9973,7 +10041,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -9985,7 +10053,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9995,7 +10063,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -10007,7 +10075,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10040,9 +10108,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10068,7 +10136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>24</v>
       </c>
@@ -10092,7 +10160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -10104,7 +10172,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -10116,7 +10184,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -10128,7 +10196,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -10140,7 +10208,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -10152,7 +10220,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -10164,7 +10232,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -10176,7 +10244,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10186,7 +10254,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -10198,7 +10266,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10231,9 +10299,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10259,7 +10327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>25</v>
       </c>
@@ -10283,7 +10351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -10295,7 +10363,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -10307,7 +10375,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -10319,7 +10387,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -10331,7 +10399,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -10343,7 +10411,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -10355,7 +10423,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -10367,7 +10435,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10377,7 +10445,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -10389,7 +10457,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10418,13 +10486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10450,15 +10518,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10474,11 +10542,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -10486,11 +10556,13 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10498,11 +10570,13 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10510,11 +10584,13 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10522,11 +10598,13 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>216</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10534,11 +10612,13 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10546,11 +10626,13 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10558,9 +10640,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>219</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -10568,11 +10652,13 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>220</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10580,7 +10666,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10609,13 +10695,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10641,15 +10727,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10665,11 +10751,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -10677,11 +10765,13 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10689,11 +10779,13 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10701,11 +10793,13 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10713,11 +10807,13 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10725,11 +10821,13 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10737,11 +10835,13 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10749,9 +10849,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>211</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -10759,11 +10861,13 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15">
+        <v>1360</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10771,7 +10875,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10801,12 +10905,12 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10832,7 +10936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>28</v>
       </c>
@@ -10840,12 +10944,14 @@
         <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -10856,11 +10962,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -10868,11 +10976,13 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10880,11 +10990,13 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10892,11 +11004,13 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10904,11 +11018,13 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10916,11 +11032,13 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10928,11 +11046,13 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10940,9 +11060,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -10950,11 +11072,13 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15">
+        <v>630</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10962,7 +11086,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10995,12 +11119,12 @@
       <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11026,7 +11150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11055,17 +11179,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -11079,7 +11203,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -11093,7 +11217,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -11107,12 +11231,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11121,7 +11245,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -11135,7 +11259,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -11149,7 +11273,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -11163,7 +11287,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>70</v>
@@ -11175,7 +11299,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -11189,7 +11313,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11222,16 +11346,16 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11257,7 +11381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -11271,7 +11395,7 @@
         <v>45811</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="4">
         <v>45796</v>
@@ -11283,12 +11407,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11297,12 +11421,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11311,12 +11435,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11325,12 +11449,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11339,7 +11463,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -11353,12 +11477,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11367,12 +11491,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11381,10 +11505,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11393,12 +11517,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11407,7 +11531,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11440,15 +11564,15 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11474,7 +11598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -11498,12 +11622,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11512,12 +11636,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11526,12 +11650,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11540,12 +11664,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11554,12 +11678,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11568,12 +11692,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11582,12 +11706,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11596,10 +11720,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11608,12 +11732,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11622,7 +11746,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11655,9 +11779,9 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11683,7 +11807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -11707,12 +11831,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11721,12 +11845,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11735,12 +11859,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11749,12 +11873,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11763,12 +11887,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11777,12 +11901,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11791,12 +11915,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11805,10 +11929,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11817,7 +11941,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -11831,7 +11955,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11864,9 +11988,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11892,7 +12016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -11916,12 +12040,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11930,12 +12054,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11944,12 +12068,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11958,12 +12082,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11972,12 +12096,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11986,12 +12110,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12000,12 +12124,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12014,10 +12138,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12026,7 +12150,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -12040,7 +12164,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12073,9 +12197,9 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12101,7 +12225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -12125,12 +12249,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -12139,12 +12263,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -12153,12 +12277,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12167,12 +12291,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12181,12 +12305,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12195,12 +12319,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12209,12 +12333,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12223,10 +12347,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12235,12 +12359,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12249,7 +12373,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12282,9 +12406,9 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12310,7 +12434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -12334,12 +12458,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -12348,12 +12472,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -12362,12 +12486,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12376,12 +12500,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12390,12 +12514,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12404,12 +12528,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12418,12 +12542,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12432,10 +12556,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12444,12 +12568,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12458,7 +12582,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pagos\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A055E7A-E444-490C-B531-BE88D3226257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B3ABE5-D90C-4163-A7A1-E4BCF587AC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="21" activeTab="26" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" activeTab="12" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="294">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -735,6 +735,262 @@
   </si>
   <si>
     <t xml:space="preserve">	$ 880</t>
+  </si>
+  <si>
+    <t>Crear la estructura inicial del proyecto con carpetas para componentes, páginas, estilos, utilidades y archivos base (App.jsx, main.jsx).</t>
+  </si>
+  <si>
+    <t>La estructura debe estar ordenada, siguiendo la convención del proyecto. Las carpetas principales deben incluir: components, pages, styles, utils. Se deben incluir los archivos base de React (App.jsx, main.jsx).</t>
+  </si>
+  <si>
+    <t>Estructura de carpetas creada y lista para alojar los archivos necesarios del proyecto.</t>
+  </si>
+  <si>
+    <t>Se cuenta con Node.js y npm/yarn instalado. Se parte de un proyecto creado con Vite o Create React App.</t>
+  </si>
+  <si>
+    <t>Andres Esquivel Breceda (desarrollador principal)</t>
+  </si>
+  <si>
+    <t>1. Crear proyecto base.
+2. Crear carpetas (components, pages, styles, utils).
+3. Crear archivos App.jsx y main.jsx.</t>
+  </si>
+  <si>
+    <t>0 USD (uso de recursos propios y herramientas de desarrollo).</t>
+  </si>
+  <si>
+    <t>Definir las clases o funciones principales necesarias para el funcionamiento inicial de la aplicación, como componentes y funciones auxiliares.</t>
+  </si>
+  <si>
+    <t>Las clases y funciones deben estar correctamente definidas, comentadas y ubicadas en las carpetas adecuadas (components, utils, etc.). Su implementación debe seguir las buenas prácticas de React.</t>
+  </si>
+  <si>
+    <t>Clases o funciones base creadas y listas para su uso en el proyecto, como los componentes de formulario, vista previa y exportación de PDF.</t>
+  </si>
+  <si>
+    <t>El desarrollador tiene conocimiento de React y JavaScript ES6. Se utilizan hooks en lugar de clases de React (useState, useEffect, etc.).</t>
+  </si>
+  <si>
+    <t>1. Definir componentes principales (FormularioCV, VistaPreviaCV, ExportarPDF).
+2. Crear funciones auxiliares (en utils) como la de exportar a PDF y validaciones.</t>
+  </si>
+  <si>
+    <t>Desarrollar la interfaz de usuario de la aplicación utilizando React y Tailwind CSS o Styled Components. Incluye diseño responsive, vista previa en tiempo real y selección de plantillas.</t>
+  </si>
+  <si>
+    <t>La interfaz debe ser funcional, intuitiva y adaptativa a diferentes dispositivos. Debe permitir al usuario crear, editar y previsualizar su CV en tiempo real.</t>
+  </si>
+  <si>
+    <t>Interfaces de usuario para las vistas principales (Home, Editor, VistaPrevia). Componentes reutilizables y navegación básica implementada si se decide usar React Router.</t>
+  </si>
+  <si>
+    <t>El diseñador/desarrollador tiene experiencia previa con React y Tailwind CSS o Styled Components. Se parte de la estructura base ya creada.</t>
+  </si>
+  <si>
+    <t>Rodrigo Juárez (desarrollador principal).</t>
+  </si>
+  <si>
+    <t>10 horas.</t>
+  </si>
+  <si>
+    <t>1. Crear vistas principales (Home, Editor, VistaPrevia).
+2. Implementar diseño responsive.
+3. Ajustar la previsualización del CV en tiempo real.
+4. Agregar selección de plantillas (opcional).</t>
+  </si>
+  <si>
+    <t>1,500 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Crear las pantallas principales de la aplicación: Home, Editor y VistaPrevia. Estas pantallas deben estar funcionales y conectadas entre sí, mostrando la estructura del flujo de la aplicación.</t>
+  </si>
+  <si>
+    <t>Las pantallas deben estar listas para recibir datos de los componentes y mostrar la información correspondiente. Se debe asegurar que las rutas estén bien definidas si se usa React Router.</t>
+  </si>
+  <si>
+    <t>Archivos de las pantallas principales (Home.jsx, Editor.jsx, VistaPrevia.jsx) en la carpeta /pages.</t>
+  </si>
+  <si>
+    <t>Se utilizarán los componentes previamente definidos para armar las pantallas. El desarrollador está familiarizado con la estructura modular de React y la navegación entre pantallas.</t>
+  </si>
+  <si>
+    <t>1. Crear la pantalla Home con bienvenida y descripción.
+2. Crear la pantalla Editor con formulario paso a paso o vista única.
+3. Crear la pantalla VistaPrevia que muestre el CV en tiempo real.</t>
+  </si>
+  <si>
+    <t>750 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Crear la pantalla de bienvenida (Home o Landing Page) que introduce al usuario en la aplicación. Incluir explicación de la funcionalidad principal y un botón para iniciar la creación del CV.</t>
+  </si>
+  <si>
+    <t>La pantalla debe ser visualmente atractiva, contener una breve descripción de la aplicación y un botón de "Comenzar". Debe ser responsive y coherente con el diseño general del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Componente Home.jsx con la estructura y estilos necesarios, así como el botón de inicio que redirige al editor.</t>
+  </si>
+  <si>
+    <t>Se utiliza Tailwind CSS o Styled Components para los estilos. La navegación se maneja con React Router si se incluye.</t>
+  </si>
+  <si>
+    <t>1. Crear componente Home.jsx.
+2. Agregar breve descripción y botón de "Comenzar".
+3. Asegurar compatibilidad responsive y pruebas.</t>
+  </si>
+  <si>
+    <t>300 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Implementar la funcionalidad para que el usuario pueda ver y seleccionar entre 8 diseños diferentes de plantillas para su CV. Cada plantilla debe tener un estilo único y atractivo, usando Tailwind CSS o Styled Components.</t>
+  </si>
+  <si>
+    <t>Los 8 diseños deben poder visualizarse correctamente y cambiar dinámicamente la vista previa del CV en tiempo real. La selección de la plantilla debe reflejarse inmediatamente en la vista previa.</t>
+  </si>
+  <si>
+    <t>Componentes para las plantillas y funcionalidad de selección, integrados con la vista previa del CV.</t>
+  </si>
+  <si>
+    <t>Se cuenta con los estilos y elementos base para cada plantilla. Se utilizan componentes reutilizables.</t>
+  </si>
+  <si>
+    <t>1. Crear los 8 estilos de plantillas.
+2. Implementar el selector de plantillas.
+3. Asegurar el cambio dinámico en la vista previa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 horas </t>
+  </si>
+  <si>
+    <t>900 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Crear el formulario donde el usuario ingresará toda la información necesaria para construir su CV. Puede ser paso a paso o en una sola vista, y debe incluir validación de campos.</t>
+  </si>
+  <si>
+    <t>El formulario debe permitir ingresar datos como: nombre, experiencia laboral, educación, habilidades, contacto, etc. Debe tener validaciones básicas y ser claro para el usuario.</t>
+  </si>
+  <si>
+    <t>Componente(s) del formulario dentro de la carpeta /components, integrados con React Hook Form o Formik para manejo de estados y validaciones.</t>
+  </si>
+  <si>
+    <t>Se utilizarán componentes reutilizables para cada sección del formulario. El estado global puede manejarse con Zustand o Context API.</t>
+  </si>
+  <si>
+    <t>1. Crear estructura base del formulario.
+2. Agregar campos necesarios y validaciones.
+3. Integrar el formulario con el estado global.
+4. Probar y asegurar que la información fluya correctamente.</t>
+  </si>
+  <si>
+    <t>1,200 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Implementar la funcionalidad para exportar el CV finalizado en un archivo PDF que el usuario pueda descargar directamente desde la app.</t>
+  </si>
+  <si>
+    <t>El archivo PDF generado debe incluir toda la información del CV con el diseño seleccionado. El botón de descarga debe ser visible y funcional en la vista previa.</t>
+  </si>
+  <si>
+    <t>Código que genere el PDF utilizando html2pdf.js o jsPDF, integrado en la vista previa (VistaPrevia.jsx).</t>
+  </si>
+  <si>
+    <t>El usuario ya tiene toda su información ingresada y el CV está listo para exportarse. Se usarán librerías confiables para la conversión a PDF.</t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t>1. Integrar la librería de exportación (html2pdf.js o jsPDF).
+2. Crear el botón de descarga.
+3. Probar la exportación para asegurar calidad y formato adecuado.</t>
+  </si>
+  <si>
+    <t>600 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Implementar la lógica principal de la aplicación: manejo de estado global/local, integración de formularios, vista previa en tiempo real, cambio de plantillas y generación del PDF.</t>
+  </si>
+  <si>
+    <t>Toda la información ingresada en el formulario debe reflejarse dinámicamente en la vista previa, con persistencia mientras se navega entre pantallas. Cambiar plantillas debe actualizar la vista previa de inmediato. Exportar debe incluir todos los datos correctamente.</t>
+  </si>
+  <si>
+    <t>Código fuente con la lógica completa: uso de React Context API o Zustand para el manejo de estado global, conexión entre componentes (formularios, vista previa y descarga).</t>
+  </si>
+  <si>
+    <t>Se utilizan buenas prácticas de React (componentes funcionales, hooks). La lógica debe estar separada de los componentes de presentación en módulos o carpetas específicas (/utils, etc.).</t>
+  </si>
+  <si>
+    <t>8 horas</t>
+  </si>
+  <si>
+    <t>1. Configurar el manejo de estado global (Context API/Zustand).
+2. Conectar formularios con vista previa.
+3. Validar que todo el flujo funcione correctamente.
+4. Revisar compatibilidad con exportación a PDF.</t>
+  </si>
+  <si>
+    <t>,200 MXN (estimado a 150 MXN/hora por el desarrollador).</t>
+  </si>
+  <si>
+    <t>Implementar pruebas unitarias para los componentes y funciones principales de la aplicación. Las pruebas cubrirán tanto los formularios como la lógica de generación del CV y exportación a PDF.</t>
+  </si>
+  <si>
+    <t>Al menos un 70% de cobertura en los componentes y funciones principales. Las pruebas deben pasar correctamente sin errores.</t>
+  </si>
+  <si>
+    <t>Archivos de pruebas en la carpeta /__tests__/ o estructura recomendada por la configuración del proyecto (por ejemplo, dentro de /components o /utils). Utilizar librerías como Jest o Vitest.</t>
+  </si>
+  <si>
+    <t>Se usarán buenas prácticas para el testing en React (testing-library/react, Jest, Vitest, etc.). Las funciones de utilidad y lógica también deben tener cobertura.</t>
+  </si>
+  <si>
+    <t>6 horas</t>
+  </si>
+  <si>
+    <t>1. Configurar el entorno de testing.
+2. Crear pruebas unitarias para los componentes.
+3. Probar funciones principales (exportar PDF, cambio de plantillas, etc.).
+4. Obtener reporte de cobertura.</t>
+  </si>
+  <si>
+    <t>El usuario puede registrarse con correo y contraseña.
+El usuario puede iniciar sesión con correo y contraseña válidos.
+El usuario puede cerrar sesión.
+La sesión se mantiene activa mientras el usuario navega por la app.
+Si la sesión expira o no está activa, el usuario debe ser redirigido a login.</t>
+  </si>
+  <si>
+    <t>Permitir que los usuarios puedan registrarse, iniciar sesión y cerrar sesión para guardar y gestionar sus CVs personalizados.</t>
+  </si>
+  <si>
+    <t>Formulario de registro funcional.
+Formulario de login funcional.
+Componente de logout.
+Manejo de estado de usuario autenticado.
+Mensajes de error en caso de credenciales inválidas.</t>
+  </si>
+  <si>
+    <t>No se requiere integración con backend real (puede usarse un mock o Firebase).
+El almacenamiento de sesión puede ser en localStorage o cookies.
+La app no tendrá recuperación de contraseña en esta fase.</t>
+  </si>
+  <si>
+    <t>1 desarrollador frontend con experiencia en React y autenticación.
+1 diseñador para diseño simple de formularios.</t>
+  </si>
+  <si>
+    <t>4 días hábiles (2 para desarrollo, 1 para pruebas, 1 para ajustes).</t>
+  </si>
+  <si>
+    <t>Día 1: Diseño y estructura de formularios.
+Día 2: Desarrollo funcional del registro e inicio de sesión.
+Día 3: Pruebas y corrección de bugs.
+Día 4: Revisión final y documentación.</t>
+  </si>
+  <si>
+    <t>Estimado en 32 horas de trabajo, tarifa aprox ($150.00 mxn la hora)</t>
   </si>
 </sst>
 </file>
@@ -994,6 +1250,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,9 +1269,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6359,9 +6615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6399,7 +6655,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6505,7 +6761,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6647,7 +6903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6915,18 +7171,18 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7032,33 +7288,33 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="17">
         <v>400</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -7070,15 +7326,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B14:K14"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7513,8 +7769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8149,8 +8405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,7 +8465,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8221,7 +8479,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>222</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -8233,7 +8493,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -8245,7 +8507,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>224</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -8257,7 +8521,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -8269,7 +8535,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -8281,7 +8549,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -8303,7 +8573,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -8340,8 +8612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CDE9E1-1FB1-4228-B864-A7CE004E1F4B}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8400,7 +8672,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8412,7 +8686,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -8424,7 +8700,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -8436,7 +8714,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -8448,7 +8728,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -8460,7 +8742,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -8472,7 +8756,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -8494,7 +8780,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -8532,7 +8820,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8591,7 +8879,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8603,7 +8893,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -8615,7 +8907,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -8627,7 +8921,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>236</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -8639,7 +8935,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -8651,7 +8949,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -8663,7 +8963,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -8685,7 +8987,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -8722,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34D016-1358-4821-966C-2F100ECA28EA}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8782,7 +9086,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8794,7 +9100,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>242</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -8806,7 +9114,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -8818,7 +9128,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -8830,7 +9142,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -8842,7 +9156,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -8854,7 +9170,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -8876,7 +9194,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9149,8 +9469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0310F28-66FE-4D54-A492-88DB8FE0D9B6}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9209,7 +9529,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>247</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9221,7 +9543,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9233,7 +9557,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>249</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9245,7 +9571,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>250</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9269,7 +9597,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9281,7 +9611,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9303,7 +9635,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9340,8 +9674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5078C0-5139-439A-B0C1-8B68B1EA704E}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9400,7 +9734,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9412,7 +9748,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9424,7 +9762,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9436,7 +9776,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9448,7 +9790,7 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9460,7 +9802,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9472,7 +9816,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9494,7 +9840,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9532,7 +9880,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9591,7 +9939,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9603,7 +9953,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9615,7 +9967,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>262</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9627,7 +9981,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9663,7 +10019,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9685,7 +10043,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9722,8 +10082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C22B7E-2436-47C1-B5C8-AC4F1534DD8C}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9782,7 +10142,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9794,7 +10156,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9806,7 +10170,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9818,7 +10184,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -9842,7 +10210,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9854,7 +10224,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>271</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -9876,7 +10248,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -9914,7 +10288,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9973,7 +10347,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9985,7 +10361,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9997,7 +10375,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10009,7 +10389,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10033,7 +10415,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10045,7 +10429,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>278</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10067,7 +10453,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10104,8 +10492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10164,7 +10552,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -10176,7 +10566,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>281</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10188,7 +10580,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10200,7 +10594,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10224,7 +10620,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10236,7 +10634,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10258,7 +10658,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10295,8 +10697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10355,7 +10757,9 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>287</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -10367,7 +10771,9 @@
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>286</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10379,7 +10785,9 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>288</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -10391,7 +10799,9 @@
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>289</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10403,7 +10813,9 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10415,7 +10827,9 @@
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10427,7 +10841,9 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>292</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10449,7 +10865,9 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -10486,9 +10904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10696,7 +11112,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10905,7 +11321,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pagos\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B3ABE5-D90C-4163-A7A1-E4BCF587AC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7A996-A1DF-49F3-82BF-C71BA3C8CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" activeTab="12" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" firstSheet="5" activeTab="28" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -48,23 +48,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="302">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -657,9 +646,6 @@
   </si>
   <si>
     <t>Activación de botón de descarga en la UI</t>
-  </si>
-  <si>
-    <t>Analista funcional</t>
   </si>
   <si>
     <t>Generación de la documentación técnica y funcional del sistema web</t>
@@ -991,6 +977,33 @@
   </si>
   <si>
     <t>Estimado en 32 horas de trabajo, tarifa aprox ($150.00 mxn la hora)</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Scrum Master (Andrés)</t>
+  </si>
+  <si>
+    <t>Efrén y Rodrigo</t>
+  </si>
+  <si>
+    <t>Rodrigo y Efrén</t>
+  </si>
+  <si>
+    <t>RodriGO</t>
+  </si>
+  <si>
+    <t>Efrén y Andrés</t>
+  </si>
+  <si>
+    <t>Analista funcional (Efrén)</t>
   </si>
 </sst>
 </file>
@@ -1250,9 +1263,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,6 +1279,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6615,9 +6628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6655,7 +6668,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6761,7 +6774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6903,7 +6916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7108,7 +7121,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7156,7 +7169,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -7171,18 +7186,18 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7288,33 +7303,33 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>400</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -7346,7 +7361,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7394,7 +7409,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -7557,7 +7574,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7605,7 +7622,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -7769,8 +7788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,7 +7836,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -7988,7 +8009,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8032,7 +8053,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -8197,7 +8220,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8228,7 +8251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>14</v>
       </c>
@@ -8241,7 +8264,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -8405,8 +8430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8437,7 +8462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -8450,7 +8475,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -8466,7 +8493,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8480,7 +8507,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8494,7 +8521,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8508,7 +8535,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8522,7 +8549,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8550,7 +8577,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8574,7 +8601,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -8613,7 +8640,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8644,7 +8671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>16</v>
       </c>
@@ -8657,7 +8684,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -8673,7 +8702,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8687,7 +8716,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8701,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8715,7 +8744,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8729,7 +8758,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8757,7 +8786,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8781,7 +8810,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -8820,7 +8849,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,7 +8893,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -8880,7 +8911,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8894,7 +8925,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8908,7 +8939,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8922,7 +8953,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8936,7 +8967,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8950,7 +8981,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8964,7 +8995,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8988,7 +9019,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9026,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34D016-1358-4821-966C-2F100ECA28EA}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9058,7 +9089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>18</v>
       </c>
@@ -9071,7 +9102,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -9087,7 +9120,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9101,7 +9134,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9115,7 +9148,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9129,7 +9162,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9143,7 +9176,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -9171,7 +9204,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -9195,7 +9228,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9233,8 +9266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9469,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0310F28-66FE-4D54-A492-88DB8FE0D9B6}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9501,7 +9534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>19</v>
       </c>
@@ -9514,7 +9547,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -9530,7 +9565,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9544,7 +9579,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9558,7 +9593,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9572,7 +9607,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9612,7 +9647,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -9636,7 +9671,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9675,7 +9710,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9719,7 +9754,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -9735,7 +9772,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9749,7 +9786,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9763,7 +9800,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9777,7 +9814,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9803,7 +9840,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -9817,7 +9854,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -9841,7 +9878,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9880,7 +9917,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9911,7 +9948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>21</v>
       </c>
@@ -9924,7 +9961,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -9940,7 +9979,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9954,7 +9993,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9968,7 +10007,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9982,7 +10021,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10020,7 +10059,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10044,7 +10083,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10083,7 +10122,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10127,7 +10166,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -10143,7 +10184,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10157,7 +10198,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10171,7 +10212,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10185,7 +10226,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10211,7 +10252,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10225,7 +10266,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10249,7 +10290,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10288,7 +10329,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>23</v>
       </c>
@@ -10332,7 +10373,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -10348,7 +10391,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10362,7 +10405,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10376,7 +10419,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10390,7 +10433,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10416,7 +10459,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10430,7 +10473,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10454,7 +10497,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10492,8 +10535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10537,7 +10580,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -10553,7 +10598,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10567,7 +10612,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10581,7 +10626,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10595,7 +10640,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10621,7 +10666,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10635,7 +10680,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10659,7 +10704,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10698,7 +10743,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10742,7 +10787,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -10758,7 +10805,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10772,7 +10819,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10786,7 +10833,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10800,7 +10847,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10814,7 +10861,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -10828,7 +10875,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10842,7 +10889,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10866,7 +10913,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10904,7 +10951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10947,7 +10996,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -10963,7 +11014,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10977,7 +11028,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10991,7 +11042,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11005,7 +11056,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11019,7 +11070,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11033,7 +11084,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11047,7 +11098,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11059,7 +11110,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11073,7 +11124,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11112,7 +11163,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11156,7 +11207,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -11172,7 +11225,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11186,7 +11239,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11200,7 +11253,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11214,7 +11267,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11228,7 +11281,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11242,7 +11295,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11256,7 +11309,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11268,7 +11321,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11320,8 +11373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11352,7 +11405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>28</v>
       </c>
@@ -11366,7 +11419,7 @@
         <v>45811</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="F3" s="4">
         <v>45796</v>
@@ -11383,7 +11436,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11397,7 +11450,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11411,7 +11464,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11425,7 +11478,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11439,7 +11492,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11453,7 +11506,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11467,7 +11520,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11479,7 +11532,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11531,7 +11584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
@@ -11758,7 +11811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98783C3C-C8D1-455F-9C2C-593A09FCC4F7}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
@@ -11977,7 +12030,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12014,7 +12067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -12027,7 +12080,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -12191,8 +12246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6C3D7-A609-43DA-9BA5-1BF8EC24B6D7}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12223,7 +12278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -12236,7 +12291,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -12401,10 +12458,13 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12432,7 +12492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -12445,7 +12505,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -12610,7 +12672,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12654,7 +12716,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -12818,8 +12882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA59EA-F891-41D6-B791-CCCE95DA6C21}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12863,7 +12927,9 @@
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>

--- a/backlogCVcreator.xlsx
+++ b/backlogCVcreator.xlsx
@@ -1,43 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efras\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-proyectos\Administracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC97BD9-B9B2-4205-83D2-761EC641D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB0773-1AE5-44C9-9868-B649AF99E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="26" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja10" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja11" sheetId="11" r:id="rId9"/>
+    <sheet name="Hoja12" sheetId="12" r:id="rId10"/>
+    <sheet name="Hoja13" sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja14" sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja15" sheetId="15" r:id="rId13"/>
+    <sheet name="Hoja16" sheetId="16" r:id="rId14"/>
+    <sheet name="Hoja17" sheetId="17" r:id="rId15"/>
+    <sheet name="Hoja18" sheetId="18" r:id="rId16"/>
+    <sheet name="Hoja19" sheetId="19" r:id="rId17"/>
+    <sheet name="Hoja20" sheetId="20" r:id="rId18"/>
+    <sheet name="Hoja21" sheetId="21" r:id="rId19"/>
+    <sheet name="Hoja22" sheetId="22" r:id="rId20"/>
+    <sheet name="Hoja23" sheetId="23" r:id="rId21"/>
+    <sheet name="Hoja24" sheetId="24" r:id="rId22"/>
+    <sheet name="Hoja25" sheetId="25" r:id="rId23"/>
+    <sheet name="Hoja26" sheetId="26" r:id="rId24"/>
+    <sheet name="Hoja27" sheetId="27" r:id="rId25"/>
+    <sheet name="Hoja28" sheetId="28" r:id="rId26"/>
+    <sheet name="Hoja29" sheetId="29" r:id="rId27"/>
+    <sheet name="DIagrama" sheetId="2" r:id="rId28"/>
+    <sheet name="Comienzo del repositorio" sheetId="3" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="73">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -233,6 +249,30 @@
   <si>
     <t>3 horas/   $100</t>
   </si>
+  <si>
+    <t>Inicio del repositorio</t>
+  </si>
+  <si>
+    <t>Creación del repositorio base, con vite, react y tailwind</t>
+  </si>
+  <si>
+    <t>Debe estar disponible para bajar cambios de master desde el repositorio de github</t>
+  </si>
+  <si>
+    <t>El backlog esta terminado y comeienza la fase de planificación</t>
+  </si>
+  <si>
+    <t>repositorio en github</t>
+  </si>
+  <si>
+    <t>Crear repositorio 03/06/2025 1:00 pm</t>
+  </si>
+  <si>
+    <t>Actualizar, haciendo modificaciones 03/06/2025 5pm</t>
+  </si>
+  <si>
+    <t>2 horas/   $150</t>
+  </si>
 </sst>
 </file>
 
@@ -338,6 +378,16 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,19 +403,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +428,3105 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9683FB66-0C85-461E-8978-F9E891A7C552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7397E408-9CC9-4FF4-B92E-178E25E7103D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7397E408-9CC9-4FF4-B92E-178E25E7103D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC099B3B-57A0-40E1-9401-C92915C8E928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC099B3B-57A0-40E1-9401-C92915C8E928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C4F8F-C237-4EC6-9F94-A81D2C42AF10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C4F8F-C237-4EC6-9F94-A81D2C42AF10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2FB23C-5AE1-4478-9D87-4FE5F25B5C05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2FB23C-5AE1-4478-9D87-4FE5F25B5C05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A1AC1A-68AB-4C4C-B4EE-490A254DE1D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A1AC1A-68AB-4C4C-B4EE-490A254DE1D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFCA774-8D7D-48D3-946A-8796FE7F1C35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFCA774-8D7D-48D3-946A-8796FE7F1C35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0BCB50-665E-4331-8CC8-3DB26D56EF97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0BCB50-665E-4331-8CC8-3DB26D56EF97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366B9A28-E096-4820-80C0-02BDBBCF3B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366B9A28-E096-4820-80C0-02BDBBCF3B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BE5709-8789-418B-82D7-1CC4511A56DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BE5709-8789-418B-82D7-1CC4511A56DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F53598-5B8E-42A9-816B-4F3C7F28AE61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F53598-5B8E-42A9-816B-4F3C7F28AE61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63ED9F-767A-4C04-8343-58CD64E9833C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63ED9F-767A-4C04-8343-58CD64E9833C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D74A354-C3AF-40B4-B788-980D1525FEF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D74A354-C3AF-40B4-B788-980D1525FEF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD4BAEA-365D-4D0C-ACD2-1EE8CF7A1DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D1195B-B552-48BA-A703-0607B7208E03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D1195B-B552-48BA-A703-0607B7208E03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F170F8AB-E8AC-4CB5-9F49-F339F40F4DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB6A931-12C6-4F54-B942-FC53CF0D2A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB6A931-12C6-4F54-B942-FC53CF0D2A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8C50A-B4CD-416B-899A-66D12C2D2AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFF0B09-6E52-4243-8636-C34CE6F94A24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFF0B09-6E52-4243-8636-C34CE6F94A24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FED6BB9-E413-FF5A-1326-860ABD135581}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FED6BB9-E413-FF5A-1326-860ABD135581}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1356DC57-D0B4-9E7E-84E2-32DD888FF211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5495400" y="3942960"/>
+            <a:ext cx="1000800" cy="330480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1356DC57-D0B4-9E7E-84E2-32DD888FF211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5489280" y="3936840"/>
+              <a:ext cx="1013040" cy="342720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>316080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1030680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DCDA0-AAC5-D76A-A832-7E6CF6F00F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="316080" y="3885720"/>
+            <a:ext cx="714600" cy="473040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Entrada de lápiz 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DCDA0-AAC5-D76A-A832-7E6CF6F00F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="309960" y="3879600"/>
+              <a:ext cx="726840" cy="485280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85B949-461C-3043-A0E4-184A61327154}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5200200" y="4114260"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85B949-461C-3043-A0E4-184A61327154}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5194080" y="4108140"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87118AB-EC5C-6D77-8E37-F3C329CA3570}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4144320" y="4056300"/>
+            <a:ext cx="851760" cy="402840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Entrada de lápiz 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87118AB-EC5C-6D77-8E37-F3C329CA3570}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4138200" y="4050180"/>
+              <a:ext cx="864000" cy="415080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BAE277-52C3-BD29-C3BC-55540F8BCFA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="293760" y="4054860"/>
+            <a:ext cx="753840" cy="333360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Entrada de lápiz 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BAE277-52C3-BD29-C3BC-55540F8BCFA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="287640" y="4048740"/>
+              <a:ext cx="766080" cy="345600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26474D66-B270-4E2E-8F82-F116687CE608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26474D66-B270-4E2E-8F82-F116687CE608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713CBF3F-6744-4EDD-B87D-43850FD8A53B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713CBF3F-6744-4EDD-B87D-43850FD8A53B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3A9FA6-4D37-479D-A121-495554F12AAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3A9FA6-4D37-479D-A121-495554F12AAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BA956A-99EA-4002-96B4-B0F466DC9766}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BA956A-99EA-4002-96B4-B0F466DC9766}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB7D83C-878D-434A-8211-0D8EC7E0AE17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="3800040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB7D83C-878D-434A-8211-0D8EC7E0AE17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1488960" y="3793920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:53.560"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:14.632"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:17.832"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:20.764"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:24"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:27.449"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:30.935"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:33.018"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:35.534"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:37.682"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:39.801"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:55.881"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:41.800"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:43.884"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:46.049"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:48.268"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:50.386"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:52.651"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:54.802"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:13.258"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:21.226"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">266 80 24575,'1'0'0,"1"1"0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 3 0,14 38 0,8 57 0,11 110 0,-9 35 0,-19-35 0,-9-227 0,0 1 0,-1 0 0,-1 0 0,0 0 0,-14-28 0,-10-28 0,4-4 0,1 9 0,3-1 0,3-1 0,-11-83 0,26 125 0,2 1 0,4-52 0,-3 77 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,19 12 0,21 37 0,-37-43 0,43 57 0,-19-24 0,2 0 0,58 57 0,-46-55 0,-29-26 0,1-1 0,0-1 0,1 0 0,1-1 0,-1 0 0,31 15 0,-46-27 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-2-1 0,-8-5 0,0 1 0,-1 1 0,0-1 0,0 2 0,0 0 0,0 0 0,-1 1 0,1 1 0,-18-2 0,-17 2 0,-57 3 0,50 0 0,44 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0-1 0,-13 9 0,-6 6 0,-38 31 0,1-1 0,64-46 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-4-2 0,4 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,1-3 0,1-12 0,1 1 0,1 0 0,9-26 0,0 12 0,1 2 0,2 0 0,36-49 0,-25 38 0,48-57 0,-47 64 0,32-50 0,-59 81 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,1-1 0,-3 1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 2 0,5 66 0,-5-63 0,-2 491 0,2-518-1365,0 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="778.92">875 424 24575,'3'-1'0,"0"0"0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,3-5 0,-2 3 0,-1 2 0,1-1 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,5-2 0,-5 2 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 4 0,0 1 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,4 8 0,15 28 0,-21-46 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-3 0,0 2 0,0 2 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3 0 0,6 1 0,0 1 0,0 0 0,0 1 0,-1 0 0,19 8 0,24 6 0,-28-14-1365,-1-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2006.48">1642 186 24575,'-3'0'0,"1"1"0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-3 3 0,-21 42 0,21-32 0,0 1 0,1-1 0,0 1 0,1-1 0,1 1 0,1 0 0,1 22 0,18-76 0,-13 7 0,-2 0 0,-1-1 0,-1 0 0,-1 1 0,-7-51 0,6 80 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,-2-2 0,2 4 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,-1 22 0,1 1 0,1 0 0,2 0 0,0-1 0,1 0 0,2 1 0,14 39 0,-10-29 0,-4-20 0,0-1 0,1 0 0,1 0 0,0 0 0,1-1 0,0 0 0,20 20 0,-28-31 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2-2 0,5-6 0,-1-1 0,0-1 0,0 1 0,5-16 0,4-8 0,-13 32 0,-1-1 0,0 1 0,0-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,3 0 0,-3 2 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,-2 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,1 3 0,11 15 0,-1 0 0,20 39 0,5 10 0,-39-71 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,-2-28 0,-28-53 0,23 66 0,1 0 0,0 0 0,1-1 0,1 0 0,-3-17 0,7 31 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,42-2 0,-39 3 0,0-1 0,0 1 0,0-2 0,0 1 0,0 0 0,8-3 0,-10 2 0,1-1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-6 0,17-66 0,-11 37 0,-2 10 0,6-45 0,-13 77 0,1 0 0,0-1 0,-1 1 0,2 0 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,1 1 0,5 4 0,-4-3 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1-1 0,8 2 0,-11-3 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-3 0,3-4 0,-1-1 0,-1 0 0,0-1 0,3-19 0,6-17 0,-12 46 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,2 1 0,41 41 0,-35-34 0,20 17 0,22 23 0,-48-46 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 6 0,-1-7 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-5 2 0,-6 1 0,-1 0 0,0-1 0,-15 1 0,-28-2 0,1-2 0,-79-13 0,35 3 0,44 8-1365,33 3-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2301.7">2092 1 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2600.21">2780 212 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:38.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">233 1 24575,'-15'0'0,"1"0"0,0 1 0,0 0 0,0 1 0,0 1 0,0 0 0,-14 6 0,21-6 0,1 0 0,0 1 0,-1 0 0,1 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,2 0 0,-1 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-6 12 0,6-13 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,0-1 0,0 1 0,0-1 0,3 12 0,-2-14 0,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,4 1 0,57 9 0,-28-3 0,1-2 0,-1-1 0,73-3 0,-108-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,1-2 0,-2 3 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-2 0,-5-6 0,0 1 0,0 0 0,-1 0 0,-13-10 0,1 1 0,16 12 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,1 0 0,-2 0 0,1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,-8 3 0,7-2 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 8 0,1 3 0,1 0 0,0 0 0,0 0 0,2 0 0,0-1 0,1 1 0,0 0 0,1-1 0,1 0 0,12 27 0,-14-34 0,1 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 0 0,0-1 0,9 2 0,-8-4 0,1 1 0,0-2 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 0 0,11-9 0,11-9 0,-2-1 0,27-30 0,-40 37 0,-1-2 0,-1 0 0,-1 0 0,0-1 0,-2-1 0,0 0 0,-1 0 0,-1-1 0,-1 0 0,4-26 0,-4 27 0,8-40 0,-15 60 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-2 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,-2 5 0,-29 56 0,28-52 0,1 1 0,1 0 0,0 0 0,0 1 0,1-1 0,0 17 0,5 88 0,1-41 0,-7 57 0,6 128 0,-3-260 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 1 0,0-2 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,1-2 0,39-62 0,-3-18 0,12-20 0,-41 78 0,0 3 0,-6 24 0,-2 14 0,-2 14 0,0 0 0,1 0 0,1 0 0,1-1 0,2 1 0,9 36 0,-12-64 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,3 0 0,-2-2 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,4-3 0,4-5 0,0 0 0,-1 0 0,0-1 0,10-16 0,12-20 0,-18 30 0,0 0 0,-2-1 0,0-1 0,-1 0 0,-1 0 0,10-32 0,-18 48 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 3 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 2 0,7 58 0,-7-50 0,0 9 0,0-1 0,2 1 0,0 0 0,8 30 0,-10-46 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,3-2 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0 0,4-10 0,1-3 0,-1 0 0,6-32 0,-12 50 0,-3 50 0,1-30 0,0-1 0,2 0 0,0 1 0,1-1 0,0 0 0,2 0 0,9 36 0,-11-51 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,7 2 0,-8-3 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,-1-1 0,1 0 0,1-2 0,1-6 0,0-1 0,0 1 0,-1 0 0,1-22 0,6-23 0,-9 55 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,6 13 0,2 36 0,-7-37 0,2 12 0,9 44 0,-13-66 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,3 2 0,-3-3 0,1 1 0,0 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1-2 0,2-5 0,0-1 0,0 0 0,-2 0 0,4-19 0,-2-12 0,-8 69 0,-8 42 0,6-39 0,2-1 0,-2 38 0,6-53 0,-1-9 0,1-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,3 6 0,-4-11 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,8-18 0,-7 17 0,9-30 0,11-58 0,-10 37 0,15-106 0,-21 129 0,-1-2 0,1-44 0,-5 53 0,1 0 0,1 0 0,1 0 0,1 0 0,1 1 0,9-26 0,40-136 0,-38 137 0,16-38 0,-29 78 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,1 1 0,0-1 0,9-6 0,-12 10 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,4 1 0,-3 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,5 6 0,-2-1 0,-1 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,-1 0 0,0 0 0,5 19 0,-4 15 0,-2-1 0,-2 1 0,-5 45 0,1 11 0,3-86 0,-1 0 0,-1 0 0,-1 0 0,0-1 0,-1 1 0,-7 19 0,-43 79 0,11-24 0,30-62 0,-1 0 0,-32 42 0,2-2 0,20-25 0,9-14 0,-26 36 0,13-44 0,26-18 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1 0 0,-2 3 0,4-4 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,28 10 0,-29-10 0,41 13 0,-1 1 0,45 24 0,-50-22-60,-16-8-375,0 2 0,28 18 0,-34-19-6391</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:58.228"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:05.474"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:01.826"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 109 24575,'0'1'0,"1"-1"0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,5 30 0,-5-26 0,8 54 0,-3 1 0,-2-1 0,-4 1 0,-1 0 0,-21 112 0,2-67 0,-15 60 0,34-247 0,3-328 0,-2 406 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,3-2 0,-4 4 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,25 13 0,198 166 0,-146-109 0,-43-36 0,-33-32 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,2 6 0,-4-9 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-4-1 0,-42-2 0,-297-10 0,342 13 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1-1 0,-3-3 0,5 3 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,1 1 0,-1-1 0,4-5 0,5-9 0,1 1 0,0 0 0,1 1 0,1 0 0,1 1 0,26-22 0,-20 19 0,-1-1 0,-2 0 0,20-26 0,-29 31 0,1 1 0,0 0 0,1 0 0,0 1 0,1 1 0,0-1 0,22-14 0,-33 25 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 14 0,-9 18 0,9-29 0,-16 47 0,-17 91 0,26-112 0,0 0 0,-2-1 0,-25 52 0,0-1 0,-55 149 0,76-182 0,12-37 0,-1-1 0,1 1 0,-1-1 0,-1 0 0,-8 15 0,12-23-20,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,-3-12-6806</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1085.24">659 612 24575,'0'-10'0,"1"-1"0,0 1 0,1 0 0,0 0 0,1 0 0,0 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 0 0,8-11 0,9-7 0,1 1 0,32-31 0,-49 52 0,-4 3 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 2 0,0-1 0,4-1 0,-5 2 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 2 0,4 7 0,0 0 0,-2 1 0,1-1 0,-1 1 0,-1-1 0,3 15 0,4 8 0,-10-32 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,26-36 0,-7 10 0,-18 26 3,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,3 2 0,4 5-249,1 1 1,-1 0 0,-1 0-1,13 19 1,-17-24-5,7 12-6576</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2757.34">1558 321 24575,'-1'9'0,"0"-1"0,-1 1 0,1-1 0,-6 16 0,-5 23 0,11-26 0,-1 2 0,2-39 0,1-438 0,-4 513 0,1-41 0,1 1 0,1 0 0,0-1 0,2 1 0,0-1 0,0 1 0,9 24 0,-5-31 0,1 0 0,1 0 0,0-1 0,1 0 0,0 0 0,12 10 0,-20-19 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,1-1 0,3-5 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,2-11 0,-6 20 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1 1 0,0 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,2 6 0,2 5 0,0 0 0,-1 1 0,0 0 0,3 22 0,9 25 0,0-12 0,-11-28 0,1-1 0,17 33 0,-10-18 0,-12-29 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,1 1 0,6 8 0,-9-15 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-2 0,3-26 0,-2-5 0,-1-15 0,2 35 0,2 14 0,-1 3 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,2-5 0,-3 0 0,1 1 0,-1 0 0,-1 0 0,1-1 0,-2 1 0,1 0 0,-1 0 0,-2-13 0,1 17 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,-6-2 0,9 4 0,0 1 0,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-2 0,0 0 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,4-2 0,10-16 0,-8 7 0,-1-1 0,1 1 0,-2-1 0,0 0 0,-1 0 0,4-23 0,-8 34 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,3-3 0,-3 3 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,3 2 0,8 4 0,1 1 0,-1 0 0,-1 0 0,0 2 0,14 10 0,0 1 0,-17-15 0,-1 1 0,0 0 0,0 1 0,-1 0 0,1 0 0,8 12 0,-15-18 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 3 0,0-3 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-4 1 0,-14 6-151,-1-2-1,0 0 0,0-1 0,-1-1 1,1-1-1,-1-1 0,0 0 1,-28-3-1,27 0-6674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3177.02">1902 189 24575</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:17:07.743"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 245 24575,'-1'53'0,"0"-18"0,0-1 0,3 1 0,1-1 0,1 0 0,11 37 0,-6-32 0,-1 1 0,-2 1 0,1 66 0,-3-43 0,-2-47 0,0-1 0,1 1 0,9 26 0,-5-106 0,-10 16 0,-2 1 0,-2 0 0,-20-68 0,15 69 0,2 0 0,2-1 0,-4-79 0,12 118 0,0-6 0,0 1 0,0 0 0,2-1 0,-1 1 0,1 0 0,5-13 0,-6 21 0,0 1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,5 0 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 2 0,0-1 0,0 1 0,0 1 0,0-1 0,9 7 0,12 9 0,41 34 0,-4-2 0,184 110 0,-249-161 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 2 0,-2-2 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-2 0 0,-74 2 0,67-3 0,-53 0 0,19-1 0,-58 5 0,87-2 0,1 2 0,0-1 0,0 2 0,0 0 0,1 0 0,-1 2 0,1-1 0,-15 10 0,26-14 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-4-1 0,4 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-3 0,2-7 0,0 0 0,0 0 0,1 1 0,1-1 0,0 1 0,11-19 0,50-66 0,-31 47 0,-7 7 0,1 2 0,2 0 0,46-44 0,-77 83 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 3 0,0 6 0,-1-1 0,0 0 0,0 1 0,-1-1 0,-4 14 0,-148 322 0,124-268 0,-21 87 0,48-152 0,-17 63-1365,13-59-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="947.43">613 457 24575,'0'-7'0,"0"-1"0,1 1 0,0 0 0,1-1 0,0 1 0,4-10 0,-6 16 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,0 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 2 0,5 6 0,-1 0 0,0 0 0,-1 1 0,7 14 0,-2-3 0,-5-31 0,-1-1 0,0-1 0,4-16 0,-7 26 0,0-3 0,1-1 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,6-5 0,-8 9 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1 1 0,26 36-1365,-17-18-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2341.98">1089 298 24575,'0'55'0,"0"-49"0,0-36 0,0-296 0,0 367 0,9 66 0,-6-92 0,0 0 0,0 0 0,2-1 0,0 1 0,0-1 0,1 0 0,14 22 0,-20-35 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,1-1 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,3-3 0,20-13 0,-24 18 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,1 1 0,11 14 0,-1 0 0,-1 0 0,0 1 0,-2 1 0,11 23 0,14 27 0,-31-70 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,3-5 0,16-13 0,22-7 0,-36 24 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,4-9 0,-2-6 0,-1 0 0,-1 0 0,0 0 0,-2 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,-9-33 0,5 45 0,4 24 0,1 25 0,3-35 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,5 5 0,-7-6 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-5 0,2-1 0,0-1 0,0 0 0,-1-1 0,0 1 0,0-1 0,2-15 0,10-29 0,-14 51 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,4 2 0,2 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 2 0,0-1 0,0 1 0,5 6 0,-1 2 0,-2-1 0,1 2 0,10 26 0,-16-35 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-2 8 0,2-11 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-6 1 0,-68 10 0,52-10 0,-32 3-176,-87-2 0,104-4-837,18 1-5813</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2777.63">1433 34 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.79">2094 87 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:00.345"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:02.349"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:04.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:06.597"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:08.797"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:10.851"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +3564,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +3670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,7 +3812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,18 +3822,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A722B-616E-4DB3-BF2C-2A33C79EA3D9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -721,11 +3856,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -782,11 +3917,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -827,11 +3962,11 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -849,11 +3984,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -877,224 +4012,200 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
-  <dimension ref="A2:I20"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F8BFA-32B2-45F8-8A47-5FBDD6265581}">
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>45880</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1109,5 +4220,5766 @@
     <mergeCell ref="B12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAE69C-D455-4EA8-92F9-B7DCF7E9CA08}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3701D73E-13F5-46DF-B190-522CA31E4294}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CDE9E1-1FB1-4228-B864-A7CE004E1F4B}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA6DED2-231E-4E0B-B413-60D7A18CB692}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34D016-1358-4821-966C-2F100ECA28EA}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0310F28-66FE-4D54-A492-88DB8FE0D9B6}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5078C0-5139-439A-B0C1-8B68B1EA704E}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98783C3C-C8D1-455F-9C2C-593A09FCC4F7}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9768D7-F2DF-4675-A3A8-40F5FAEEE65E}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C22B7E-2436-47C1-B5C8-AC4F1534DD8C}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E808D06-4984-4532-837A-7B298F1D3161}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
+  <dimension ref="A2:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E409BCC-ED1C-445E-8955-238321CDE218}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6C3D7-A609-43DA-9BA5-1BF8EC24B6D7}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F84F38-9AB4-4E34-812B-544C9CFA1AB6}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5136AC-4FBB-4E45-A781-0F794BA84F25}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA59EA-F891-41D6-B791-CCCE95DA6C21}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB009B5F-CFA5-40C7-B7C8-CBDD8E6B383C}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1CB2FE-CAEB-4D86-A4D5-61A45D0E435A}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>